--- a/trunk/GiovanellisPizzariaEntrega1S/TCM - Pizzaria - Semestre 1 - 2014/TLBDII/Dicionario de Dados.xlsx
+++ b/trunk/GiovanellisPizzariaEntrega1S/TCM - Pizzaria - Semestre 1 - 2014/TLBDII/Dicionario de Dados.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="180" yWindow="450" windowWidth="15000" windowHeight="7605"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="242">
   <si>
     <t>Dicionário de Dados</t>
   </si>
@@ -306,18 +306,9 @@
     <t>DataVenda</t>
   </si>
   <si>
-    <t>Tabela PedidoFornecedor</t>
-  </si>
-  <si>
     <t>Tabela Permissao</t>
   </si>
   <si>
-    <t>(PK) CodPermissao</t>
-  </si>
-  <si>
-    <t>Código da Permissão de restrição do sistema</t>
-  </si>
-  <si>
     <t>Cargo</t>
   </si>
   <si>
@@ -444,9 +435,6 @@
     <t>Responsável</t>
   </si>
   <si>
-    <t>Tabela FuncPermissao</t>
-  </si>
-  <si>
     <t>(PK) CodDetalhe</t>
   </si>
   <si>
@@ -579,15 +567,6 @@
     <t>Data de nascimento do Funcionario</t>
   </si>
   <si>
-    <t>Ingrediente</t>
-  </si>
-  <si>
-    <t>Ingredientes do produto</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
     <t>SobePromocao</t>
   </si>
   <si>
@@ -597,18 +576,6 @@
     <t>UsuarioCadastrado</t>
   </si>
   <si>
-    <t>(PK) CodProdutoPromocao</t>
-  </si>
-  <si>
-    <t>Código do Produto Promoção</t>
-  </si>
-  <si>
-    <t>Código da promoção da tabela Promocao</t>
-  </si>
-  <si>
-    <t>Tabela ProdutoPromocao</t>
-  </si>
-  <si>
     <t>Tabela Promocao</t>
   </si>
   <si>
@@ -676,6 +643,105 @@
   </si>
   <si>
     <t>Cod do Fornecedor da tabela Fornecedor</t>
+  </si>
+  <si>
+    <t>Observação</t>
+  </si>
+  <si>
+    <t>Origem</t>
+  </si>
+  <si>
+    <t>Campo para o usuário colocar observações pertinentes quanto ao pedido que fez</t>
+  </si>
+  <si>
+    <t>Se o pedido foi feito pela internet, telefone ou in loco</t>
+  </si>
+  <si>
+    <t>Estado do pedido ("Na fila", "Em preparo", "A caminho", "Entregue" ou "Cancelado")</t>
+  </si>
+  <si>
+    <t>Literal</t>
+  </si>
+  <si>
+    <t>Salário</t>
+  </si>
+  <si>
+    <t>Valor do salário do funcionário</t>
+  </si>
+  <si>
+    <t>Tabela ProdutoPedido</t>
+  </si>
+  <si>
+    <t>(PK) CodPedidoPromocao</t>
+  </si>
+  <si>
+    <t>Código do Pedido Promoção</t>
+  </si>
+  <si>
+    <t>Código do pedido da tabela Pedido</t>
+  </si>
+  <si>
+    <t>Tabela CompraFornecedor</t>
+  </si>
+  <si>
+    <t>Tabela Despesa</t>
+  </si>
+  <si>
+    <t>(PK) codDespesa</t>
+  </si>
+  <si>
+    <t>Código da Despesa</t>
+  </si>
+  <si>
+    <t>NomeDespesa</t>
+  </si>
+  <si>
+    <t>Nome da despesa</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>ValorDespesa</t>
+  </si>
+  <si>
+    <t>Valor da despesa</t>
+  </si>
+  <si>
+    <t>DataPagamento</t>
+  </si>
+  <si>
+    <t>A data que a despesa foi paga</t>
+  </si>
+  <si>
+    <t>TipoDespesa</t>
+  </si>
+  <si>
+    <t>O tipo de despesa que foi paga (Luz, Água, Telefone, etc)</t>
+  </si>
+  <si>
+    <t>Tabela Consumo</t>
+  </si>
+  <si>
+    <t>(PK) codConsumo</t>
+  </si>
+  <si>
+    <t>(FK) codProduto</t>
+  </si>
+  <si>
+    <t>Código do Produto da tabela Produto</t>
+  </si>
+  <si>
+    <t>(FK) codInsumo</t>
+  </si>
+  <si>
+    <t>Código do Insumo da tabela Insumo</t>
+  </si>
+  <si>
+    <t>Quantidade</t>
+  </si>
+  <si>
+    <t>Quantidade a ser subtraído do Insumo</t>
   </si>
 </sst>
 </file>
@@ -1207,9 +1273,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1385,6 +1448,60 @@
     <xf numFmtId="0" fontId="18" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1394,27 +1511,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1424,59 +1520,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1772,10 +1838,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E150"/>
+  <dimension ref="A1:E155"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F138" sqref="F138"/>
+    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
+      <selection activeCell="A156" sqref="A156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="12.75"/>
@@ -1787,12 +1853,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" thickBot="1">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="76"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="83"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1">
       <c r="A2" s="1"/>
@@ -1801,1716 +1867,1867 @@
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="79"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="89"/>
     </row>
     <row r="4" spans="1:4" ht="15">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="56" t="s">
+      <c r="D4" s="55" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="11"/>
+      <c r="D5" s="10"/>
     </row>
     <row r="6" spans="1:4" ht="15">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15">
+      <c r="A7" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15">
+      <c r="A8" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" s="23">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15">
+      <c r="A9" s="47" t="s">
+        <v>177</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="23"/>
+    </row>
+    <row r="10" spans="1:4" ht="15">
+      <c r="A10" s="47" t="s">
+        <v>178</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="23"/>
+    </row>
+    <row r="11" spans="1:4" ht="15">
+      <c r="A11" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" s="23">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15">
+      <c r="A12" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12" s="23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15">
+      <c r="A13" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15">
+      <c r="A14" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" s="23">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="30">
+      <c r="A15" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D15" s="10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15">
+      <c r="A16" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" s="26">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15">
+      <c r="A17" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17" s="26">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30">
+      <c r="A18" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" s="23">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15">
+      <c r="A19" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A20" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D20" s="21"/>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A21" s="45"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="46"/>
+    </row>
+    <row r="22" spans="1:5" ht="15">
+      <c r="A22" s="84" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="85"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="86"/>
+      <c r="E22" s="31"/>
+    </row>
+    <row r="23" spans="1:5" ht="15">
+      <c r="A23" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15">
+      <c r="A24" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="10"/>
+    </row>
+    <row r="25" spans="1:5" ht="15">
+      <c r="A25" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="D25" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15">
+      <c r="A26" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="D26" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15">
+      <c r="A27" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="B27" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="C27" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="D27" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="30">
+      <c r="A28" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="10"/>
+    </row>
+    <row r="29" spans="1:5" ht="30">
+      <c r="A29" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="10"/>
+    </row>
+    <row r="30" spans="1:5" ht="45">
+      <c r="A30" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="D30" s="10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="30">
+      <c r="A31" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="D31" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="45.75" thickBot="1">
+      <c r="A32" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="B32" s="35" t="s">
+        <v>213</v>
+      </c>
+      <c r="C32" s="66" t="s">
+        <v>214</v>
+      </c>
+      <c r="D32" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A33" s="1"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="1:5" ht="15">
+      <c r="A34" s="84" t="s">
+        <v>126</v>
+      </c>
+      <c r="B34" s="85"/>
+      <c r="C34" s="85"/>
+      <c r="D34" s="86"/>
+      <c r="E34" s="31"/>
+    </row>
+    <row r="35" spans="1:5" ht="15">
+      <c r="A35" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15">
+      <c r="A36" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="B36" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="10"/>
+    </row>
+    <row r="37" spans="1:5" ht="30">
+      <c r="A37" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="10"/>
+    </row>
+    <row r="38" spans="1:5" ht="30.75" thickBot="1">
+      <c r="A38" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="B38" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="14"/>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A39" s="45"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="46"/>
+    </row>
+    <row r="40" spans="1:5" ht="15">
+      <c r="A40" s="90" t="s">
+        <v>148</v>
+      </c>
+      <c r="B40" s="85"/>
+      <c r="C40" s="85"/>
+      <c r="D40" s="86"/>
+    </row>
+    <row r="41" spans="1:5" ht="15">
+      <c r="A41" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15">
+      <c r="A42" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B42" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D42" s="10"/>
+    </row>
+    <row r="43" spans="1:5" ht="15">
+      <c r="A43" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D43" s="10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15">
+      <c r="A44" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D44" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15">
+      <c r="A45" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D45" s="23">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15">
+      <c r="A46" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="C46" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="D46" s="23">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15">
+      <c r="A47" s="47" t="s">
+        <v>166</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C47" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="23"/>
+    </row>
+    <row r="48" spans="1:5" ht="15">
+      <c r="A48" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D48" s="23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15">
+      <c r="A49" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D49" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15">
+      <c r="A50" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D50" s="23">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="15">
+      <c r="A51" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="B51" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D51" s="23">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15">
+      <c r="A52" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B52" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D52" s="10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15">
+      <c r="A53" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="B53" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D53" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="15">
+      <c r="A54" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B54" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D54" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="30">
+      <c r="A55" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="B55" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="C55" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="D55" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15">
+      <c r="A56" s="68" t="s">
+        <v>215</v>
+      </c>
+      <c r="B56" s="64" t="s">
+        <v>216</v>
+      </c>
+      <c r="C56" s="65" t="s">
         <v>102</v>
       </c>
-      <c r="D6" s="11">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15">
-      <c r="A7" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="D7" s="11">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15">
-      <c r="A8" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="D8" s="24">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15">
-      <c r="A9" s="48" t="s">
-        <v>181</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="C9" s="18" t="s">
+      <c r="D56" s="96">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="30.75" thickBot="1">
+      <c r="A57" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C57" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="24"/>
-    </row>
-    <row r="10" spans="1:4" ht="15">
-      <c r="A10" s="48" t="s">
-        <v>182</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="C10" s="18" t="s">
+      <c r="D57" s="14"/>
+    </row>
+    <row r="58" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A58" s="1"/>
+      <c r="B58" s="42"/>
+      <c r="C58" s="43"/>
+      <c r="D58" s="41"/>
+    </row>
+    <row r="59" spans="1:5" ht="15">
+      <c r="A59" s="90" t="s">
+        <v>96</v>
+      </c>
+      <c r="B59" s="85"/>
+      <c r="C59" s="85"/>
+      <c r="D59" s="86"/>
+      <c r="E59" s="31"/>
+    </row>
+    <row r="60" spans="1:5" ht="15">
+      <c r="A60" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="59" t="s">
+        <v>164</v>
+      </c>
+      <c r="B61" s="60" t="s">
+        <v>170</v>
+      </c>
+      <c r="C61" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="24"/>
-    </row>
-    <row r="11" spans="1:4" ht="15">
-      <c r="A11" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="B11" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="D11" s="24">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15">
-      <c r="A12" s="23" t="s">
+      <c r="D61" s="44"/>
+    </row>
+    <row r="62" spans="1:5" ht="15">
+      <c r="A62" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="B62" s="60" t="s">
+        <v>171</v>
+      </c>
+      <c r="C62" s="61" t="s">
+        <v>99</v>
+      </c>
+      <c r="D62" s="63">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="15">
+      <c r="A63" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="B63" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="C63" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="D63" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="15">
+      <c r="A64" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="B64" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="C64" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="D64" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="30">
+      <c r="A65" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="B65" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" s="10"/>
+    </row>
+    <row r="66" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A66" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="D12" s="24">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15">
-      <c r="A13" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="D13" s="24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15">
-      <c r="A14" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="D14" s="24">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="30">
-      <c r="A15" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="D15" s="11">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15">
-      <c r="A16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="D16" s="27">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15">
-      <c r="A17" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="B17" s="35" t="s">
-        <v>169</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="D17" s="27">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="30">
-      <c r="A18" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="B18" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="D18" s="24">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15">
-      <c r="A19" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="B19" s="35" t="s">
-        <v>145</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="D19" s="11">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A20" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="D20" s="22"/>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A21" s="46"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="47"/>
-    </row>
-    <row r="22" spans="1:5" ht="15">
-      <c r="A22" s="67" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="68"/>
-      <c r="C22" s="68"/>
-      <c r="D22" s="69"/>
-      <c r="E22" s="32"/>
-    </row>
-    <row r="23" spans="1:5" ht="15">
-      <c r="A23" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15">
-      <c r="A24" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" s="11"/>
-    </row>
-    <row r="25" spans="1:5" ht="15">
-      <c r="A25" s="30" t="s">
-        <v>137</v>
-      </c>
-      <c r="B25" s="35" t="s">
-        <v>153</v>
-      </c>
-      <c r="C25" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="D25" s="11">
+      <c r="B66" s="57"/>
+      <c r="C66" s="62" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="15">
-      <c r="A26" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="B26" s="35" t="s">
-        <v>154</v>
-      </c>
-      <c r="C26" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="D26" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="15">
-      <c r="A27" s="30" t="s">
-        <v>183</v>
-      </c>
-      <c r="B27" s="35" t="s">
-        <v>184</v>
-      </c>
-      <c r="C27" s="29" t="s">
-        <v>185</v>
-      </c>
-      <c r="D27" s="11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="30">
-      <c r="A28" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="C28" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="D28" s="11"/>
-    </row>
-    <row r="29" spans="1:5" ht="30.75" thickBot="1">
-      <c r="A29" s="31" t="s">
-        <v>171</v>
-      </c>
-      <c r="B29" s="36" t="s">
-        <v>177</v>
-      </c>
-      <c r="C29" s="82" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="15"/>
-    </row>
-    <row r="30" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A30" s="1"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="1:5" ht="15">
-      <c r="A31" s="67" t="s">
-        <v>129</v>
-      </c>
-      <c r="B31" s="68"/>
-      <c r="C31" s="68"/>
-      <c r="D31" s="69"/>
-      <c r="E31" s="32"/>
-    </row>
-    <row r="32" spans="1:5" ht="15">
-      <c r="A32" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15">
-      <c r="A33" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="B33" s="35" t="s">
-        <v>165</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="11"/>
-    </row>
-    <row r="34" spans="1:4" ht="30">
-      <c r="A34" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" s="35" t="s">
-        <v>166</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" s="11"/>
-    </row>
-    <row r="35" spans="1:4" ht="30.75" thickBot="1">
-      <c r="A35" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="B35" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" s="15"/>
-    </row>
-    <row r="36" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A36" s="46"/>
-      <c r="B36" s="40"/>
-      <c r="C36" s="41"/>
-      <c r="D36" s="47"/>
-    </row>
-    <row r="37" spans="1:4" ht="15">
-      <c r="A37" s="73" t="s">
-        <v>152</v>
-      </c>
-      <c r="B37" s="68"/>
-      <c r="C37" s="68"/>
-      <c r="D37" s="69"/>
-    </row>
-    <row r="38" spans="1:4" ht="15">
-      <c r="A38" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="15">
-      <c r="A39" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B39" s="35" t="s">
-        <v>149</v>
-      </c>
-      <c r="C39" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="D39" s="11"/>
-    </row>
-    <row r="40" spans="1:4" ht="15">
-      <c r="A40" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="D40" s="11">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="15">
-      <c r="A41" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B41" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="D41" s="11">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="15">
-      <c r="A42" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="B42" s="35" t="s">
-        <v>150</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="D42" s="24">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="15">
-      <c r="A43" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="B43" s="35" t="s">
-        <v>173</v>
-      </c>
-      <c r="C43" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="D43" s="24">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="15">
-      <c r="A44" s="48" t="s">
-        <v>170</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="C44" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D44" s="24"/>
-    </row>
-    <row r="45" spans="1:4" ht="15">
-      <c r="A45" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="D45" s="24">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="15">
-      <c r="A46" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="D46" s="24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="15">
-      <c r="A47" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="D47" s="24">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="15">
-      <c r="A48" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="B48" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="D48" s="24">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="15">
-      <c r="A49" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B49" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="D49" s="11">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="15">
-      <c r="A50" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="B50" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="D50" s="11">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="15">
-      <c r="A51" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="B51" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="D51" s="11">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="30">
-      <c r="A52" s="30" t="s">
-        <v>178</v>
-      </c>
-      <c r="B52" s="35" t="s">
-        <v>186</v>
-      </c>
-      <c r="C52" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="D52" s="11">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="30.75" thickBot="1">
-      <c r="A53" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="B53" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="C53" s="57" t="s">
-        <v>8</v>
-      </c>
-      <c r="D53" s="15"/>
-    </row>
-    <row r="54" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A54" s="1"/>
-      <c r="B54" s="43"/>
-      <c r="C54" s="44"/>
-      <c r="D54" s="42"/>
-    </row>
-    <row r="55" spans="1:5" ht="15">
-      <c r="A55" s="73" t="s">
-        <v>142</v>
-      </c>
-      <c r="B55" s="68"/>
-      <c r="C55" s="68"/>
-      <c r="D55" s="69"/>
-      <c r="E55" s="32"/>
-    </row>
-    <row r="56" spans="1:5" ht="15">
-      <c r="A56" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="60" t="s">
-        <v>168</v>
-      </c>
-      <c r="B57" s="61" t="s">
-        <v>174</v>
-      </c>
-      <c r="C57" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="D57" s="45"/>
-    </row>
-    <row r="58" spans="1:5" ht="15">
-      <c r="A58" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="B58" s="61" t="s">
-        <v>175</v>
-      </c>
-      <c r="C58" s="62" t="s">
-        <v>102</v>
-      </c>
-      <c r="D58" s="64">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="15">
-      <c r="A59" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="B59" s="35" t="s">
-        <v>176</v>
-      </c>
-      <c r="C59" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="D59" s="11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="30">
-      <c r="A60" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="B60" s="35" t="s">
-        <v>164</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D60" s="11"/>
-    </row>
-    <row r="61" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A61" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="B61" s="58"/>
-      <c r="C61" s="63" t="s">
-        <v>8</v>
-      </c>
-      <c r="D61" s="59"/>
-    </row>
-    <row r="62" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A62" s="46"/>
-      <c r="B62" s="40"/>
-      <c r="C62" s="41"/>
-      <c r="D62" s="47"/>
-    </row>
-    <row r="63" spans="1:5" ht="15">
-      <c r="A63" s="67" t="s">
-        <v>97</v>
-      </c>
-      <c r="B63" s="68"/>
-      <c r="C63" s="68"/>
-      <c r="D63" s="69"/>
-      <c r="E63" s="32"/>
-    </row>
-    <row r="64" spans="1:5" ht="15">
-      <c r="A64" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="30">
-      <c r="A65" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="B65" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D65" s="11"/>
-    </row>
-    <row r="66" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A66" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="B66" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="C66" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="D66" s="15">
-        <v>30</v>
-      </c>
+      <c r="D66" s="58"/>
     </row>
     <row r="67" spans="1:5" ht="15.75" thickBot="1">
       <c r="A67" s="1"/>
-      <c r="B67" s="43"/>
-      <c r="C67" s="41"/>
-      <c r="D67" s="42"/>
+      <c r="B67" s="42"/>
+      <c r="C67" s="40"/>
+      <c r="D67" s="41"/>
     </row>
     <row r="68" spans="1:5" ht="15">
-      <c r="A68" s="83" t="s">
+      <c r="A68" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="B68" s="84"/>
-      <c r="C68" s="84"/>
-      <c r="D68" s="85"/>
-      <c r="E68" s="32"/>
+      <c r="B68" s="79"/>
+      <c r="C68" s="79"/>
+      <c r="D68" s="80"/>
+      <c r="E68" s="31"/>
     </row>
     <row r="69" spans="1:5" ht="15">
-      <c r="A69" s="4" t="s">
+      <c r="A69" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C69" s="6" t="s">
+      <c r="C69" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D69" s="7" t="s">
+      <c r="D69" s="6" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="15">
-      <c r="A70" s="16" t="s">
+      <c r="A70" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B70" s="17" t="s">
+      <c r="B70" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C70" s="18" t="s">
+      <c r="C70" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="D70" s="11"/>
+      <c r="D70" s="10"/>
     </row>
     <row r="71" spans="1:5" ht="15">
-      <c r="A71" s="19" t="s">
+      <c r="A71" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="B71" s="17" t="s">
+      <c r="B71" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="C71" s="10" t="s">
+      <c r="C71" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D71" s="10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="15">
+      <c r="A72" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B72" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C72" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="D71" s="11">
+      <c r="D72" s="27" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="30">
+      <c r="A73" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="B73" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="C73" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="D73" s="10"/>
+    </row>
+    <row r="74" spans="1:5" ht="30.75" thickBot="1">
+      <c r="A74" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="B74" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="C74" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D74" s="21"/>
+    </row>
+    <row r="75" spans="1:5" ht="13.5" thickBot="1"/>
+    <row r="76" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A76" s="90" t="s">
+        <v>186</v>
+      </c>
+      <c r="B76" s="91"/>
+      <c r="C76" s="91"/>
+      <c r="D76" s="92"/>
+      <c r="E76" s="31"/>
+    </row>
+    <row r="77" spans="1:5" ht="15">
+      <c r="A77" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="15">
+      <c r="A78" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B78" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C78" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D78" s="10"/>
+    </row>
+    <row r="79" spans="1:5" ht="15">
+      <c r="A79" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B79" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D79" s="10">
         <v>40</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="15">
-      <c r="A72" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="B72" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C72" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="D72" s="28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="15">
-      <c r="A73" s="30" t="s">
-        <v>187</v>
-      </c>
-      <c r="B73" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="C73" s="29" t="s">
+    <row r="80" spans="1:5" ht="15">
+      <c r="A80" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B80" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D80" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="15">
+      <c r="A81" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B81" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C81" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="D73" s="28" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="30">
-      <c r="A74" s="30" t="s">
-        <v>139</v>
-      </c>
-      <c r="B74" s="35" t="s">
-        <v>156</v>
-      </c>
-      <c r="C74" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="D74" s="11"/>
-    </row>
-    <row r="75" spans="1:5" ht="30.75" thickBot="1">
-      <c r="A75" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="B75" s="36" t="s">
-        <v>158</v>
-      </c>
-      <c r="C75" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="D75" s="22"/>
-    </row>
-    <row r="76" spans="1:5" ht="13.5" thickBot="1"/>
-    <row r="77" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A77" s="73" t="s">
-        <v>197</v>
-      </c>
-      <c r="B77" s="80"/>
-      <c r="C77" s="80"/>
-      <c r="D77" s="81"/>
-      <c r="E77" s="32"/>
-    </row>
-    <row r="78" spans="1:5" ht="15">
-      <c r="A78" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C78" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D78" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="15">
-      <c r="A79" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B79" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C79" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D79" s="11"/>
-    </row>
-    <row r="80" spans="1:5" ht="15">
-      <c r="A80" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B80" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C80" s="10" t="s">
+      <c r="D81" s="27" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="15">
+      <c r="A82" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B82" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C82" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="D80" s="11">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="15">
-      <c r="A81" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B81" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C81" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="D81" s="11">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="15">
-      <c r="A82" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B82" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C82" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="D82" s="28" t="s">
-        <v>128</v>
+      <c r="D82" s="27" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="15">
       <c r="A83" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B83" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C83" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="D83" s="28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="15">
-      <c r="A84" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="B84" s="35" t="s">
-        <v>147</v>
-      </c>
-      <c r="C84" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="D84" s="28" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="30">
-      <c r="A85" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="B83" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="C83" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="D83" s="27" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="30">
+      <c r="A84" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="B84" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="C84" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="D84" s="27"/>
+    </row>
+    <row r="85" spans="1:5" ht="30.75" thickBot="1">
+      <c r="A85" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="B85" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="C85" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="D85" s="21"/>
+    </row>
+    <row r="86" spans="1:5" ht="13.5" thickBot="1"/>
+    <row r="87" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A87" s="90" t="s">
+        <v>217</v>
+      </c>
+      <c r="B87" s="91"/>
+      <c r="C87" s="91"/>
+      <c r="D87" s="92"/>
+      <c r="E87" s="31"/>
+    </row>
+    <row r="88" spans="1:5" ht="15">
+      <c r="A88" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B88" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="15">
+      <c r="A89" s="69" t="s">
+        <v>218</v>
+      </c>
+      <c r="B89" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="C89" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="D89" s="71"/>
+    </row>
+    <row r="90" spans="1:5" ht="30">
+      <c r="A90" s="69" t="s">
+        <v>57</v>
+      </c>
+      <c r="B90" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="C90" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="D90" s="72"/>
+    </row>
+    <row r="91" spans="1:5" ht="30.75" thickBot="1">
+      <c r="A91" s="97" t="s">
+        <v>48</v>
+      </c>
+      <c r="B91" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="C91" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="D91" s="74"/>
+    </row>
+    <row r="92" spans="1:5" ht="13.5" thickBot="1"/>
+    <row r="93" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A93" s="90" t="s">
+        <v>187</v>
+      </c>
+      <c r="B93" s="91"/>
+      <c r="C93" s="91"/>
+      <c r="D93" s="92"/>
+      <c r="E93" s="31"/>
+    </row>
+    <row r="94" spans="1:5" ht="15">
+      <c r="A94" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="15">
+      <c r="A95" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="B95" s="34" t="s">
+        <v>195</v>
+      </c>
+      <c r="C95" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D95" s="10"/>
+    </row>
+    <row r="96" spans="1:5" ht="15">
+      <c r="A96" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B96" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="C96" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D96" s="10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="15">
+      <c r="A97" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="B97" s="34" t="s">
+        <v>197</v>
+      </c>
+      <c r="C97" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="D97" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="30">
+      <c r="A98" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="B85" s="35" t="s">
+      <c r="B98" s="34" t="s">
+        <v>198</v>
+      </c>
+      <c r="C98" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D98" s="27"/>
+    </row>
+    <row r="99" spans="1:5" ht="15">
+      <c r="A99" s="29" t="s">
         <v>191</v>
       </c>
-      <c r="C85" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="D85" s="28"/>
-    </row>
-    <row r="86" spans="1:5" ht="30.75" thickBot="1">
-      <c r="A86" s="39" t="s">
+      <c r="B99" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="C99" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D99" s="27"/>
+    </row>
+    <row r="100" spans="1:5" ht="15">
+      <c r="A100" s="29" t="s">
         <v>192</v>
       </c>
-      <c r="B86" s="36" t="s">
-        <v>191</v>
-      </c>
-      <c r="C86" s="82" t="s">
+      <c r="B100" s="34" t="s">
+        <v>200</v>
+      </c>
+      <c r="C100" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="D100" s="27" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="15">
+      <c r="A101" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="B101" s="34" t="s">
+        <v>201</v>
+      </c>
+      <c r="C101" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="D101" s="27" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="15">
+      <c r="A102" s="68" t="s">
+        <v>64</v>
+      </c>
+      <c r="B102" s="64" t="s">
+        <v>202</v>
+      </c>
+      <c r="C102" s="65" t="s">
+        <v>111</v>
+      </c>
+      <c r="D102" s="67" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="30.75" thickBot="1">
+      <c r="A103" s="38" t="s">
+        <v>194</v>
+      </c>
+      <c r="B103" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="C103" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="D103" s="21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="13.5" thickBot="1"/>
+    <row r="105" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A105" s="90" t="s">
+        <v>204</v>
+      </c>
+      <c r="B105" s="91"/>
+      <c r="C105" s="91"/>
+      <c r="D105" s="92"/>
+      <c r="E105" s="31"/>
+    </row>
+    <row r="106" spans="1:5" ht="15">
+      <c r="A106" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="15">
+      <c r="A107" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="B107" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="C107" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D86" s="22"/>
-    </row>
-    <row r="87" spans="1:5" ht="13.5" thickBot="1"/>
-    <row r="88" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A88" s="73" t="s">
-        <v>196</v>
-      </c>
-      <c r="B88" s="80"/>
-      <c r="C88" s="80"/>
-      <c r="D88" s="81"/>
-      <c r="E88" s="32"/>
-    </row>
-    <row r="89" spans="1:5" ht="15">
-      <c r="A89" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B89" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D89" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="30">
-      <c r="A90" s="88" t="s">
-        <v>193</v>
-      </c>
-      <c r="B90" s="35" t="s">
-        <v>194</v>
-      </c>
-      <c r="C90" s="89" t="s">
+      <c r="D107" s="10"/>
+    </row>
+    <row r="108" spans="1:5" ht="30">
+      <c r="A108" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="B108" s="34" t="s">
+        <v>207</v>
+      </c>
+      <c r="C108" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D90" s="90"/>
-    </row>
-    <row r="91" spans="1:5" ht="30">
-      <c r="A91" s="88" t="s">
-        <v>57</v>
-      </c>
-      <c r="B91" s="65" t="s">
-        <v>35</v>
-      </c>
-      <c r="C91" s="89" t="s">
+      <c r="D108" s="10"/>
+    </row>
+    <row r="109" spans="1:5" ht="30.75" thickBot="1">
+      <c r="A109" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="B109" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="C109" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D91" s="92"/>
-    </row>
-    <row r="92" spans="1:5" ht="30.75" thickBot="1">
-      <c r="A92" s="91" t="s">
-        <v>23</v>
-      </c>
-      <c r="B92" s="36" t="s">
-        <v>195</v>
-      </c>
-      <c r="C92" s="93" t="s">
-        <v>8</v>
-      </c>
-      <c r="D92" s="94"/>
-    </row>
-    <row r="93" spans="1:5" ht="13.5" thickBot="1"/>
-    <row r="94" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A94" s="73" t="s">
-        <v>198</v>
-      </c>
-      <c r="B94" s="80"/>
-      <c r="C94" s="80"/>
-      <c r="D94" s="81"/>
-      <c r="E94" s="32"/>
-    </row>
-    <row r="95" spans="1:5" ht="15">
-      <c r="A95" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B95" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C95" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D95" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="15">
-      <c r="A96" s="33" t="s">
-        <v>199</v>
-      </c>
-      <c r="B96" s="35" t="s">
-        <v>206</v>
-      </c>
-      <c r="C96" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D96" s="11"/>
-    </row>
-    <row r="97" spans="1:5" ht="15">
-      <c r="A97" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B97" s="35" t="s">
-        <v>207</v>
-      </c>
-      <c r="C97" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="D97" s="11">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="15">
-      <c r="A98" s="30" t="s">
-        <v>200</v>
-      </c>
-      <c r="B98" s="35" t="s">
-        <v>208</v>
-      </c>
-      <c r="C98" s="29" t="s">
-        <v>185</v>
-      </c>
-      <c r="D98" s="11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="30">
-      <c r="A99" s="30" t="s">
-        <v>201</v>
-      </c>
-      <c r="B99" s="35" t="s">
-        <v>209</v>
-      </c>
-      <c r="C99" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="D99" s="28"/>
-    </row>
-    <row r="100" spans="1:5" ht="15">
-      <c r="A100" s="30" t="s">
-        <v>202</v>
-      </c>
-      <c r="B100" s="35" t="s">
-        <v>210</v>
-      </c>
-      <c r="C100" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="D100" s="28"/>
-    </row>
-    <row r="101" spans="1:5" ht="15">
-      <c r="A101" s="30" t="s">
-        <v>203</v>
-      </c>
-      <c r="B101" s="35" t="s">
-        <v>211</v>
-      </c>
-      <c r="C101" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="D101" s="28" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="15">
-      <c r="A102" s="30" t="s">
-        <v>204</v>
-      </c>
-      <c r="B102" s="35" t="s">
-        <v>212</v>
-      </c>
-      <c r="C102" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="D102" s="28" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" ht="15">
-      <c r="A103" s="87" t="s">
-        <v>64</v>
-      </c>
-      <c r="B103" s="65" t="s">
-        <v>213</v>
-      </c>
-      <c r="C103" s="66" t="s">
-        <v>114</v>
-      </c>
-      <c r="D103" s="86" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" ht="30.75" thickBot="1">
-      <c r="A104" s="39" t="s">
-        <v>205</v>
-      </c>
-      <c r="B104" s="36" t="s">
-        <v>214</v>
-      </c>
-      <c r="C104" s="82" t="s">
-        <v>102</v>
-      </c>
-      <c r="D104" s="22">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" ht="13.5" thickBot="1"/>
-    <row r="106" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A106" s="73" t="s">
-        <v>215</v>
-      </c>
-      <c r="B106" s="80"/>
-      <c r="C106" s="80"/>
-      <c r="D106" s="81"/>
-      <c r="E106" s="32"/>
-    </row>
-    <row r="107" spans="1:5" ht="15">
-      <c r="A107" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B107" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C107" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D107" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" ht="15">
-      <c r="A108" s="33" t="s">
-        <v>216</v>
-      </c>
-      <c r="B108" s="35" t="s">
-        <v>217</v>
-      </c>
-      <c r="C108" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D108" s="11"/>
-    </row>
-    <row r="109" spans="1:5" ht="30">
-      <c r="A109" s="33" t="s">
-        <v>199</v>
-      </c>
-      <c r="B109" s="35" t="s">
-        <v>218</v>
-      </c>
-      <c r="C109" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D109" s="11"/>
-    </row>
-    <row r="110" spans="1:5" ht="30.75" thickBot="1">
-      <c r="A110" s="31" t="s">
+      <c r="D109" s="21"/>
+    </row>
+    <row r="111" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A111" s="51"/>
+      <c r="B111" s="39"/>
+      <c r="C111" s="50"/>
+      <c r="D111" s="75"/>
+    </row>
+    <row r="112" spans="1:5" ht="15">
+      <c r="A112" s="84" t="s">
+        <v>66</v>
+      </c>
+      <c r="B112" s="85"/>
+      <c r="C112" s="85"/>
+      <c r="D112" s="86"/>
+      <c r="E112" s="31"/>
+    </row>
+    <row r="113" spans="1:5" ht="15">
+      <c r="A113" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="15">
+      <c r="A114" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="B110" s="36" t="s">
-        <v>219</v>
-      </c>
-      <c r="C110" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D110" s="22"/>
-    </row>
-    <row r="112" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A112" s="52"/>
-      <c r="B112" s="40"/>
-      <c r="C112" s="51"/>
-      <c r="D112" s="95"/>
-    </row>
-    <row r="113" spans="1:5" ht="15">
-      <c r="A113" s="67" t="s">
-        <v>66</v>
-      </c>
-      <c r="B113" s="68"/>
-      <c r="C113" s="68"/>
-      <c r="D113" s="69"/>
-      <c r="E113" s="32"/>
-    </row>
-    <row r="114" spans="1:5" ht="15">
-      <c r="A114" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B114" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C114" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D114" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" ht="15">
-      <c r="A115" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="B115" s="17" t="s">
+      <c r="B114" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="C115" s="18" t="s">
+      <c r="C114" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="D115" s="11"/>
-    </row>
-    <row r="116" spans="1:5" ht="30">
-      <c r="A116" s="19" t="s">
+      <c r="D114" s="10"/>
+    </row>
+    <row r="115" spans="1:5" ht="30">
+      <c r="A115" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="B116" s="17" t="s">
+      <c r="B115" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="C116" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="D116" s="11">
+      <c r="C115" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="D115" s="10">
         <v>18</v>
       </c>
     </row>
+    <row r="116" spans="1:5" ht="15">
+      <c r="A116" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B116" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C116" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D116" s="10">
+        <v>50</v>
+      </c>
+    </row>
     <row r="117" spans="1:5" ht="15">
-      <c r="A117" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="B117" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="C117" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="D117" s="11">
+      <c r="A117" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B117" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C117" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D117" s="10">
         <v>50</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="15">
       <c r="A118" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="B118" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="C118" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C118" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D118" s="10">
+        <v>30</v>
+      </c>
+      <c r="E118" s="93"/>
+    </row>
+    <row r="119" spans="1:5" ht="15">
+      <c r="A119" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C119" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D119" s="10">
+        <v>7</v>
+      </c>
+      <c r="E119" s="94"/>
+    </row>
+    <row r="120" spans="1:5" ht="15">
+      <c r="A120" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C120" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D120" s="10">
+        <v>10</v>
+      </c>
+      <c r="E120" s="95"/>
+    </row>
+    <row r="121" spans="1:5" ht="15">
+      <c r="A121" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="B121" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="C121" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="D121" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="30">
+      <c r="A122" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B122" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="C122" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="D122" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="15">
+      <c r="A123" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B123" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C123" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D123" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="30">
+      <c r="A124" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B124" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C124" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D124" s="10">
+        <v>13</v>
+      </c>
+      <c r="E124" s="37"/>
+    </row>
+    <row r="125" spans="1:5" ht="15">
+      <c r="A125" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B125" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="C125" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D125" s="10">
+        <v>40</v>
+      </c>
+      <c r="E125" s="37"/>
+    </row>
+    <row r="126" spans="1:5" ht="15">
+      <c r="A126" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C126" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D126" s="23"/>
+    </row>
+    <row r="127" spans="1:5" ht="15">
+      <c r="A127" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B127" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C127" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D127" s="23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="15">
+      <c r="A128" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="B128" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C128" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D128" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="15">
+      <c r="A129" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B129" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C129" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D129" s="23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="15">
+      <c r="A130" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="B130" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="C130" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D130" s="23">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="30.75" thickBot="1">
+      <c r="A131" s="76" t="s">
+        <v>12</v>
+      </c>
+      <c r="B131" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C131" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D131" s="14">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A132" s="48"/>
+      <c r="B132" s="49"/>
+      <c r="C132" s="50"/>
+      <c r="D132" s="77"/>
+    </row>
+    <row r="133" spans="1:5" ht="15">
+      <c r="A133" s="78" t="s">
+        <v>221</v>
+      </c>
+      <c r="B133" s="79"/>
+      <c r="C133" s="79"/>
+      <c r="D133" s="80"/>
+      <c r="E133" s="31"/>
+    </row>
+    <row r="134" spans="1:5" ht="15">
+      <c r="A134" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D134" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="15">
+      <c r="A135" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="B135" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C135" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D135" s="10"/>
+    </row>
+    <row r="136" spans="1:5" ht="15">
+      <c r="A136" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="B136" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C136" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="D118" s="11">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" ht="15">
-      <c r="A119" s="20" t="s">
+      <c r="D136" s="27" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="30">
+      <c r="A137" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B137" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C137" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B119" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="C119" s="10" t="s">
+      <c r="D137" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="30">
+      <c r="A138" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="B138" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C138" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D138" s="10"/>
+    </row>
+    <row r="139" spans="1:5" ht="45.75" thickBot="1">
+      <c r="A139" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B139" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C139" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D139" s="14"/>
+    </row>
+    <row r="140" spans="1:5" ht="13.5" thickBot="1"/>
+    <row r="141" spans="1:5" ht="15">
+      <c r="A141" s="78" t="s">
+        <v>222</v>
+      </c>
+      <c r="B141" s="79"/>
+      <c r="C141" s="79"/>
+      <c r="D141" s="80"/>
+    </row>
+    <row r="142" spans="1:5" ht="15">
+      <c r="A142" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D142" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="15">
+      <c r="A143" s="32" t="s">
+        <v>223</v>
+      </c>
+      <c r="B143" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="C143" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D143" s="10"/>
+    </row>
+    <row r="144" spans="1:5" ht="15">
+      <c r="A144" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="B144" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="C144" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="D144" s="27" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="15">
+      <c r="A145" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="B145" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="C145" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="D119" s="11">
-        <v>30</v>
-      </c>
-      <c r="E119" s="70"/>
-    </row>
-    <row r="120" spans="1:5" ht="15">
-      <c r="A120" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="B120" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="C120" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="D120" s="11">
-        <v>7</v>
-      </c>
-      <c r="E120" s="71"/>
-    </row>
-    <row r="121" spans="1:5" ht="15">
-      <c r="A121" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="B121" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="C121" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="D121" s="11">
+      <c r="D145" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="15">
+      <c r="A146" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="B146" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="C146" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="D146" s="10"/>
+    </row>
+    <row r="147" spans="1:4" ht="30.75" thickBot="1">
+      <c r="A147" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="B147" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="C147" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="D147" s="14">
         <v>10</v>
       </c>
-      <c r="E121" s="72"/>
-    </row>
-    <row r="122" spans="1:5" ht="15">
-      <c r="A122" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="B122" s="35" t="s">
-        <v>159</v>
-      </c>
-      <c r="C122" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="D122" s="11">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" ht="30">
-      <c r="A123" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="B123" s="35" t="s">
-        <v>160</v>
-      </c>
-      <c r="C123" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="D123" s="11">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" ht="15">
-      <c r="A124" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="B124" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="C124" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="D124" s="11">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" ht="30">
-      <c r="A125" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="B125" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="C125" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="D125" s="11">
-        <v>13</v>
-      </c>
-      <c r="E125" s="38"/>
-    </row>
-    <row r="126" spans="1:5" ht="15">
-      <c r="A126" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="B126" s="35" t="s">
-        <v>161</v>
-      </c>
-      <c r="C126" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="D126" s="11">
-        <v>40</v>
-      </c>
-      <c r="E126" s="38"/>
-    </row>
-    <row r="127" spans="1:5" ht="15">
-      <c r="A127" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="B127" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="C127" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D127" s="24"/>
-    </row>
-    <row r="128" spans="1:5" ht="15">
-      <c r="A128" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="B128" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="C128" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="D128" s="24">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" ht="15">
-      <c r="A129" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="B129" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="C129" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="D129" s="24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" ht="15">
-      <c r="A130" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="B130" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="C130" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="D130" s="24">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" ht="15">
-      <c r="A131" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="B131" s="35" t="s">
-        <v>162</v>
-      </c>
-      <c r="C131" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="D131" s="24">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" ht="30.75" thickBot="1">
-      <c r="A132" s="96" t="s">
-        <v>12</v>
-      </c>
-      <c r="B132" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="C132" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="D132" s="15">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A133" s="49"/>
-      <c r="B133" s="50"/>
-      <c r="C133" s="51"/>
-      <c r="D133" s="97"/>
-    </row>
-    <row r="134" spans="1:5" ht="15">
-      <c r="A134" s="83" t="s">
-        <v>96</v>
-      </c>
-      <c r="B134" s="84"/>
-      <c r="C134" s="84"/>
-      <c r="D134" s="85"/>
-      <c r="E134" s="32"/>
-    </row>
-    <row r="135" spans="1:5" ht="15">
-      <c r="A135" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B135" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C135" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D135" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" ht="15">
-      <c r="A136" s="33" t="s">
-        <v>172</v>
-      </c>
-      <c r="B136" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="C136" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="D136" s="11"/>
-    </row>
-    <row r="137" spans="1:5" ht="15">
-      <c r="A137" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="B137" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="C137" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="D137" s="28" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" ht="30">
-      <c r="A138" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="B138" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="C138" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="D138" s="11">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" ht="30">
-      <c r="A139" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="B139" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="C139" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D139" s="11"/>
-    </row>
-    <row r="140" spans="1:5" ht="45.75" thickBot="1">
-      <c r="A140" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="B140" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="C140" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D140" s="15"/>
-    </row>
-    <row r="144" spans="1:5" ht="15">
-      <c r="A144" s="1"/>
-      <c r="B144" s="2"/>
-      <c r="C144" s="1"/>
-      <c r="D144" s="1"/>
-    </row>
-    <row r="147" spans="1:4" ht="15">
-      <c r="A147" s="1"/>
-      <c r="B147" s="2"/>
-      <c r="C147" s="1"/>
-      <c r="D147" s="1"/>
-    </row>
-    <row r="148" spans="1:4" ht="15">
+    </row>
+    <row r="148" spans="1:4" ht="15.75" thickBot="1">
       <c r="A148" s="1"/>
       <c r="B148" s="2"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
     </row>
     <row r="149" spans="1:4" ht="15">
-      <c r="A149" s="1"/>
-      <c r="B149" s="2"/>
-      <c r="C149" s="1"/>
-      <c r="D149" s="1"/>
-    </row>
-    <row r="150" spans="1:4">
-      <c r="A150" s="3"/>
-      <c r="B150" s="3"/>
-      <c r="C150" s="3"/>
-      <c r="D150" s="3"/>
+      <c r="A149" s="78" t="s">
+        <v>234</v>
+      </c>
+      <c r="B149" s="79"/>
+      <c r="C149" s="79"/>
+      <c r="D149" s="80"/>
+    </row>
+    <row r="150" spans="1:4" ht="15">
+      <c r="A150" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D150" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="15">
+      <c r="A151" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="B151" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="C151" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D151" s="10"/>
+    </row>
+    <row r="152" spans="1:4" ht="30">
+      <c r="A152" s="29" t="s">
+        <v>236</v>
+      </c>
+      <c r="B152" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="C152" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D152" s="27"/>
+    </row>
+    <row r="153" spans="1:4" ht="30">
+      <c r="A153" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="B153" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="C153" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D153" s="10"/>
+    </row>
+    <row r="154" spans="1:4" ht="15">
+      <c r="A154" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="B154" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="C154" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="D154" s="10"/>
+    </row>
+    <row r="155" spans="1:4" ht="30.75" thickBot="1">
+      <c r="A155" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="B155" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="C155" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="D155" s="14">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A134:D134"/>
+  <mergeCells count="16">
+    <mergeCell ref="E118:E120"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A141:D141"/>
+    <mergeCell ref="A149:D149"/>
+    <mergeCell ref="A133:D133"/>
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A63:D63"/>
     <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A76:D76"/>
+    <mergeCell ref="A40:D40"/>
     <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A113:D113"/>
+    <mergeCell ref="A112:D112"/>
     <mergeCell ref="A68:D68"/>
-    <mergeCell ref="A88:D88"/>
-    <mergeCell ref="A94:D94"/>
-    <mergeCell ref="A106:D106"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="E119:E121"/>
-    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A87:D87"/>
+    <mergeCell ref="A93:D93"/>
+    <mergeCell ref="A105:D105"/>
+    <mergeCell ref="A34:D34"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/trunk/GiovanellisPizzariaEntrega1S/TCM - Pizzaria - Semestre 1 - 2014/TLBDII/Dicionario de Dados.xlsx
+++ b/trunk/GiovanellisPizzariaEntrega1S/TCM - Pizzaria - Semestre 1 - 2014/TLBDII/Dicionario de Dados.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="180" yWindow="450" windowWidth="15000" windowHeight="7605"/>
@@ -147,9 +147,6 @@
     <t>Nome do Fornecedor</t>
   </si>
   <si>
-    <t>Tabela Pedido</t>
-  </si>
-  <si>
     <t>Campo</t>
   </si>
   <si>
@@ -462,9 +459,6 @@
     <t>Celular do Funcionário</t>
   </si>
   <si>
-    <t>Tabela Funcionario</t>
-  </si>
-  <si>
     <t>Data do pedido</t>
   </si>
   <si>
@@ -516,9 +510,6 @@
     <t>Celular do Cliente</t>
   </si>
   <si>
-    <t>Numero Residencia</t>
-  </si>
-  <si>
     <t>(FK) CodCliente</t>
   </si>
   <si>
@@ -684,9 +675,6 @@
     <t>Tabela CompraFornecedor</t>
   </si>
   <si>
-    <t>Tabela Despesa</t>
-  </si>
-  <si>
     <t>(PK) codDespesa</t>
   </si>
   <si>
@@ -699,9 +687,6 @@
     <t>Nome da despesa</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>ValorDespesa</t>
   </si>
   <si>
@@ -742,6 +727,21 @@
   </si>
   <si>
     <t>Quantidade a ser subtraído do Insumo</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>Pedido</t>
+  </si>
+  <si>
+    <t>Despesa</t>
+  </si>
+  <si>
+    <t>Funcionario</t>
+  </si>
+  <si>
+    <t>Char</t>
   </si>
 </sst>
 </file>
@@ -1484,6 +1484,30 @@
     <xf numFmtId="0" fontId="16" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1502,15 +1526,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1520,29 +1535,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1840,8 +1840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
-      <selection activeCell="A156" sqref="A156"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="12.75"/>
@@ -1853,12 +1853,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" thickBot="1">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="83"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="91"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1">
       <c r="A2" s="1"/>
@@ -1867,12 +1867,12 @@
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="89"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="94"/>
     </row>
     <row r="4" spans="1:4" ht="15">
       <c r="A4" s="52" t="s">
@@ -1908,7 +1908,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D6" s="10">
         <v>40</v>
@@ -1922,7 +1922,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D7" s="10">
         <v>14</v>
@@ -1933,10 +1933,10 @@
         <v>11</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D8" s="23">
         <v>40</v>
@@ -1944,10 +1944,10 @@
     </row>
     <row r="9" spans="1:4" ht="15">
       <c r="A9" s="47" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>8</v>
@@ -1956,10 +1956,10 @@
     </row>
     <row r="10" spans="1:4" ht="15">
       <c r="A10" s="47" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>8</v>
@@ -1968,13 +1968,13 @@
     </row>
     <row r="11" spans="1:4" ht="15">
       <c r="A11" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D11" s="23">
         <v>30</v>
@@ -1982,13 +1982,13 @@
     </row>
     <row r="12" spans="1:4" ht="15">
       <c r="A12" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D12" s="23">
         <v>10</v>
@@ -1996,13 +1996,13 @@
     </row>
     <row r="13" spans="1:4" ht="15">
       <c r="A13" s="22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D13" s="23">
         <v>2</v>
@@ -2010,13 +2010,13 @@
     </row>
     <row r="14" spans="1:4" ht="15">
       <c r="A14" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D14" s="23">
         <v>30</v>
@@ -2027,10 +2027,10 @@
         <v>12</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D15" s="10">
         <v>40</v>
@@ -2044,7 +2044,7 @@
         <v>18</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D16" s="26">
         <v>14</v>
@@ -2052,13 +2052,13 @@
     </row>
     <row r="17" spans="1:5" ht="15">
       <c r="A17" s="29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D17" s="26">
         <v>15</v>
@@ -2066,13 +2066,13 @@
     </row>
     <row r="18" spans="1:5" ht="30">
       <c r="A18" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D18" s="23">
         <v>40</v>
@@ -2080,13 +2080,13 @@
     </row>
     <row r="19" spans="1:5" ht="15">
       <c r="A19" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D19" s="10">
         <v>20</v>
@@ -2094,13 +2094,13 @@
     </row>
     <row r="20" spans="1:5" ht="15.75" thickBot="1">
       <c r="A20" s="11" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D20" s="21"/>
     </row>
@@ -2111,702 +2111,706 @@
       <c r="D21" s="46"/>
     </row>
     <row r="22" spans="1:5" ht="15">
-      <c r="A22" s="84" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="85"/>
-      <c r="C22" s="85"/>
-      <c r="D22" s="86"/>
-      <c r="E22" s="31"/>
+      <c r="A22" s="86" t="s">
+        <v>239</v>
+      </c>
+      <c r="B22" s="87"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="88"/>
     </row>
     <row r="23" spans="1:5" ht="15">
       <c r="A23" s="3" t="s">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15">
-      <c r="A24" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>49</v>
+      <c r="A24" s="32" t="s">
+        <v>219</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>220</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="D24" s="10"/>
     </row>
     <row r="25" spans="1:5" ht="15">
       <c r="A25" s="29" t="s">
+        <v>221</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15">
+      <c r="A26" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15">
+      <c r="A27" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D27" s="10"/>
+    </row>
+    <row r="28" spans="1:5" ht="30.75" thickBot="1">
+      <c r="A28" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="D28" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A29" s="1"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:5" ht="15">
+      <c r="A30" s="97" t="s">
+        <v>238</v>
+      </c>
+      <c r="B30" s="84"/>
+      <c r="C30" s="84"/>
+      <c r="D30" s="85"/>
+      <c r="E30" s="31"/>
+    </row>
+    <row r="31" spans="1:5" ht="15">
+      <c r="A31" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15">
+      <c r="A32" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="10"/>
+    </row>
+    <row r="33" spans="1:5" ht="15">
+      <c r="A33" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="B33" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="D33" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15">
+      <c r="A34" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="B25" s="34" t="s">
+      <c r="B34" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="C34" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="C25" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="D25" s="10">
+      <c r="D34" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15">
+      <c r="A35" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B35" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="C35" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="D35" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="30">
+      <c r="A36" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" s="10"/>
+    </row>
+    <row r="37" spans="1:5" ht="30">
+      <c r="A37" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C37" s="17" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="15">
-      <c r="A26" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="B26" s="34" t="s">
-        <v>150</v>
-      </c>
-      <c r="C26" s="28" t="s">
-        <v>151</v>
-      </c>
-      <c r="D26" s="10">
+      <c r="D37" s="10"/>
+    </row>
+    <row r="38" spans="1:5" ht="45">
+      <c r="A38" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="D38" s="10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="30">
+      <c r="A39" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="D39" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="45.75" thickBot="1">
+      <c r="A40" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="B40" s="35" t="s">
+        <v>210</v>
+      </c>
+      <c r="C40" s="66" t="s">
+        <v>211</v>
+      </c>
+      <c r="D40" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A41" s="1"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" spans="1:5" ht="15">
+      <c r="A42" s="97" t="s">
+        <v>125</v>
+      </c>
+      <c r="B42" s="84"/>
+      <c r="C42" s="84"/>
+      <c r="D42" s="85"/>
+      <c r="E42" s="31"/>
+    </row>
+    <row r="43" spans="1:5" ht="15">
+      <c r="A43" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15">
-      <c r="A27" s="29" t="s">
+    <row r="44" spans="1:5" ht="15">
+      <c r="A44" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="B44" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="10"/>
+    </row>
+    <row r="45" spans="1:5" ht="30">
+      <c r="A45" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B45" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="10"/>
+    </row>
+    <row r="46" spans="1:5" ht="30.75" thickBot="1">
+      <c r="A46" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="B46" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="14"/>
+    </row>
+    <row r="47" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A47" s="45"/>
+      <c r="B47" s="39"/>
+      <c r="C47" s="40"/>
+      <c r="D47" s="46"/>
+    </row>
+    <row r="48" spans="1:5" ht="15">
+      <c r="A48" s="83" t="s">
+        <v>240</v>
+      </c>
+      <c r="B48" s="84"/>
+      <c r="C48" s="84"/>
+      <c r="D48" s="85"/>
+    </row>
+    <row r="49" spans="1:4" ht="15">
+      <c r="A49" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15">
+      <c r="A50" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B50" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="C50" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D50" s="10"/>
+    </row>
+    <row r="51" spans="1:4" ht="15">
+      <c r="A51" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B51" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D51" s="10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15">
+      <c r="A52" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D52" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15">
+      <c r="A53" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B53" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D53" s="23">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15">
+      <c r="A54" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="B54" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="C54" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="D54" s="23">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15">
+      <c r="A55" s="47" t="s">
+        <v>174</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C55" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" s="23"/>
+    </row>
+    <row r="56" spans="1:4" ht="15">
+      <c r="A56" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D56" s="23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15">
+      <c r="A57" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="D57" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15">
+      <c r="A58" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D58" s="23">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15">
+      <c r="A59" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="B59" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D59" s="23">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15">
+      <c r="A60" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B60" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D60" s="10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15">
+      <c r="A61" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="B61" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D61" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="15">
+      <c r="A62" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B62" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D62" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="30">
+      <c r="A63" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="B63" s="34" t="s">
         <v>179</v>
       </c>
-      <c r="B27" s="34" t="s">
-        <v>180</v>
-      </c>
-      <c r="C27" s="28" t="s">
-        <v>181</v>
-      </c>
-      <c r="D27" s="10">
+      <c r="C63" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="D63" s="10"/>
+    </row>
+    <row r="64" spans="1:4" ht="15">
+      <c r="A64" s="68" t="s">
+        <v>212</v>
+      </c>
+      <c r="B64" s="64" t="s">
+        <v>213</v>
+      </c>
+      <c r="C64" s="65" t="s">
+        <v>101</v>
+      </c>
+      <c r="D64" s="78">
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="30">
-      <c r="A28" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="C28" s="17" t="s">
+    <row r="65" spans="1:5" ht="30.75" thickBot="1">
+      <c r="A65" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C65" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" s="14"/>
+    </row>
+    <row r="66" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A66" s="1"/>
+      <c r="B66" s="42"/>
+      <c r="C66" s="43"/>
+      <c r="D66" s="41"/>
+    </row>
+    <row r="67" spans="1:5" ht="15">
+      <c r="A67" s="83" t="s">
+        <v>95</v>
+      </c>
+      <c r="B67" s="84"/>
+      <c r="C67" s="84"/>
+      <c r="D67" s="85"/>
+      <c r="E67" s="31"/>
+    </row>
+    <row r="68" spans="1:5" ht="15">
+      <c r="A68" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="59" t="s">
+        <v>162</v>
+      </c>
+      <c r="B69" s="60" t="s">
+        <v>167</v>
+      </c>
+      <c r="C69" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69" s="44"/>
+    </row>
+    <row r="70" spans="1:5" ht="15">
+      <c r="A70" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="B70" s="60" t="s">
+        <v>168</v>
+      </c>
+      <c r="C70" s="61" t="s">
+        <v>98</v>
+      </c>
+      <c r="D70" s="63">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="15">
+      <c r="A71" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="B71" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="C71" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="D71" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="15">
+      <c r="A72" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="B72" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="D72" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="30">
+      <c r="A73" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="B73" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D73" s="10"/>
+    </row>
+    <row r="74" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A74" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="B74" s="57"/>
+      <c r="C74" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="D74" s="58"/>
+    </row>
+    <row r="75" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A75" s="1"/>
+      <c r="B75" s="42"/>
+      <c r="C75" s="40"/>
+      <c r="D75" s="41"/>
+    </row>
+    <row r="76" spans="1:5" ht="15">
+      <c r="A76" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="D28" s="10"/>
-    </row>
-    <row r="29" spans="1:5" ht="30">
-      <c r="A29" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="10"/>
-    </row>
-    <row r="30" spans="1:5" ht="45">
-      <c r="A30" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="D30" s="10">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="30">
-      <c r="A31" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="D31" s="10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="45.75" thickBot="1">
-      <c r="A32" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="B32" s="35" t="s">
-        <v>213</v>
-      </c>
-      <c r="C32" s="66" t="s">
-        <v>214</v>
-      </c>
-      <c r="D32" s="14">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A33" s="1"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-    </row>
-    <row r="34" spans="1:5" ht="15">
-      <c r="A34" s="84" t="s">
-        <v>126</v>
-      </c>
-      <c r="B34" s="85"/>
-      <c r="C34" s="85"/>
-      <c r="D34" s="86"/>
-      <c r="E34" s="31"/>
-    </row>
-    <row r="35" spans="1:5" ht="15">
-      <c r="A35" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="15">
-      <c r="A36" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="B36" s="34" t="s">
-        <v>161</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" s="10"/>
-    </row>
-    <row r="37" spans="1:5" ht="30">
-      <c r="A37" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B37" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" s="10"/>
-    </row>
-    <row r="38" spans="1:5" ht="30.75" thickBot="1">
-      <c r="A38" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="B38" s="35" t="s">
-        <v>163</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D38" s="14"/>
-    </row>
-    <row r="39" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A39" s="45"/>
-      <c r="B39" s="39"/>
-      <c r="C39" s="40"/>
-      <c r="D39" s="46"/>
-    </row>
-    <row r="40" spans="1:5" ht="15">
-      <c r="A40" s="90" t="s">
-        <v>148</v>
-      </c>
-      <c r="B40" s="85"/>
-      <c r="C40" s="85"/>
-      <c r="D40" s="86"/>
-    </row>
-    <row r="41" spans="1:5" ht="15">
-      <c r="A41" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="15">
-      <c r="A42" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B42" s="34" t="s">
-        <v>145</v>
-      </c>
-      <c r="C42" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D42" s="10"/>
-    </row>
-    <row r="43" spans="1:5" ht="15">
-      <c r="A43" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="B43" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D43" s="10">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="15">
-      <c r="A44" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B44" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D44" s="10">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="15">
-      <c r="A45" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B45" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D45" s="23">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="15">
-      <c r="A46" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="B46" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="C46" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="D46" s="23">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="15">
-      <c r="A47" s="47" t="s">
-        <v>166</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="C47" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D47" s="23"/>
-    </row>
-    <row r="48" spans="1:5" ht="15">
-      <c r="A48" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D48" s="23">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="15">
-      <c r="A49" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D49" s="23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="15">
-      <c r="A50" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D50" s="23">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="15">
-      <c r="A51" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="B51" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D51" s="23">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="15">
-      <c r="A52" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B52" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D52" s="10">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="15">
-      <c r="A53" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="B53" s="34" t="s">
-        <v>147</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D53" s="10">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="15">
-      <c r="A54" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="B54" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D54" s="10">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="30">
-      <c r="A55" s="29" t="s">
-        <v>174</v>
-      </c>
-      <c r="B55" s="34" t="s">
-        <v>182</v>
-      </c>
-      <c r="C55" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="D55" s="10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="15">
-      <c r="A56" s="68" t="s">
-        <v>215</v>
-      </c>
-      <c r="B56" s="64" t="s">
-        <v>216</v>
-      </c>
-      <c r="C56" s="65" t="s">
-        <v>102</v>
-      </c>
-      <c r="D56" s="96">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="30.75" thickBot="1">
-      <c r="A57" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="B57" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="C57" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="D57" s="14"/>
-    </row>
-    <row r="58" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A58" s="1"/>
-      <c r="B58" s="42"/>
-      <c r="C58" s="43"/>
-      <c r="D58" s="41"/>
-    </row>
-    <row r="59" spans="1:5" ht="15">
-      <c r="A59" s="90" t="s">
-        <v>96</v>
-      </c>
-      <c r="B59" s="85"/>
-      <c r="C59" s="85"/>
-      <c r="D59" s="86"/>
-      <c r="E59" s="31"/>
-    </row>
-    <row r="60" spans="1:5" ht="15">
-      <c r="A60" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="59" t="s">
-        <v>164</v>
-      </c>
-      <c r="B61" s="60" t="s">
-        <v>170</v>
-      </c>
-      <c r="C61" s="61" t="s">
-        <v>8</v>
-      </c>
-      <c r="D61" s="44"/>
-    </row>
-    <row r="62" spans="1:5" ht="15">
-      <c r="A62" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="B62" s="60" t="s">
-        <v>171</v>
-      </c>
-      <c r="C62" s="61" t="s">
-        <v>99</v>
-      </c>
-      <c r="D62" s="63">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="15">
-      <c r="A63" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="B63" s="34" t="s">
-        <v>172</v>
-      </c>
-      <c r="C63" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="D63" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="15">
-      <c r="A64" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="B64" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="C64" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="D64" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="30">
-      <c r="A65" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="B65" s="34" t="s">
-        <v>160</v>
-      </c>
-      <c r="C65" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D65" s="10"/>
-    </row>
-    <row r="66" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A66" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="B66" s="57"/>
-      <c r="C66" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="D66" s="58"/>
-    </row>
-    <row r="67" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A67" s="1"/>
-      <c r="B67" s="42"/>
-      <c r="C67" s="40"/>
-      <c r="D67" s="41"/>
-    </row>
-    <row r="68" spans="1:5" ht="15">
-      <c r="A68" s="78" t="s">
-        <v>52</v>
-      </c>
-      <c r="B68" s="79"/>
-      <c r="C68" s="79"/>
-      <c r="D68" s="80"/>
-      <c r="E68" s="31"/>
-    </row>
-    <row r="69" spans="1:5" ht="15">
-      <c r="A69" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="15">
-      <c r="A70" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="B70" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C70" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="D70" s="10"/>
-    </row>
-    <row r="71" spans="1:5" ht="15">
-      <c r="A71" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="B71" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="C71" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D71" s="10">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="15">
-      <c r="A72" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="B72" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="C72" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="D72" s="27" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="30">
-      <c r="A73" s="29" t="s">
-        <v>136</v>
-      </c>
-      <c r="B73" s="34" t="s">
-        <v>152</v>
-      </c>
-      <c r="C73" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="D73" s="10"/>
-    </row>
-    <row r="74" spans="1:5" ht="30.75" thickBot="1">
-      <c r="A74" s="30" t="s">
-        <v>137</v>
-      </c>
-      <c r="B74" s="35" t="s">
-        <v>154</v>
-      </c>
-      <c r="C74" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="D74" s="21"/>
-    </row>
-    <row r="75" spans="1:5" ht="13.5" thickBot="1"/>
-    <row r="76" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A76" s="90" t="s">
-        <v>186</v>
-      </c>
-      <c r="B76" s="91"/>
-      <c r="C76" s="91"/>
-      <c r="D76" s="92"/>
+      <c r="B76" s="87"/>
+      <c r="C76" s="87"/>
+      <c r="D76" s="88"/>
       <c r="E76" s="31"/>
     </row>
     <row r="77" spans="1:5" ht="15">
       <c r="A77" s="3" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="15">
       <c r="A78" s="15" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="B78" s="16" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="C78" s="17" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="D78" s="10"/>
     </row>
     <row r="79" spans="1:5" ht="15">
       <c r="A79" s="18" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="B79" s="16" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D79" s="10">
         <v>40</v>
@@ -2814,825 +2818,819 @@
     </row>
     <row r="80" spans="1:5" ht="15">
       <c r="A80" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B80" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D80" s="27" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="30">
+      <c r="A81" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="B81" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="C81" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="D81" s="10"/>
+    </row>
+    <row r="82" spans="1:5" ht="30.75" thickBot="1">
+      <c r="A82" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="B82" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="C82" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D82" s="21"/>
+    </row>
+    <row r="83" spans="1:5" ht="13.5" thickBot="1"/>
+    <row r="84" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A84" s="83" t="s">
+        <v>183</v>
+      </c>
+      <c r="B84" s="95"/>
+      <c r="C84" s="95"/>
+      <c r="D84" s="96"/>
+      <c r="E84" s="31"/>
+    </row>
+    <row r="85" spans="1:5" ht="15">
+      <c r="A85" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="15">
+      <c r="A86" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B86" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C86" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D86" s="10"/>
+    </row>
+    <row r="87" spans="1:5" ht="15">
+      <c r="A87" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B87" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D87" s="10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="15">
+      <c r="A88" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B80" s="16" t="s">
+      <c r="B88" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C80" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D80" s="10">
+      <c r="C88" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D88" s="10">
         <v>50</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="15">
-      <c r="A81" s="18" t="s">
+    <row r="89" spans="1:5" ht="15">
+      <c r="A89" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B81" s="16" t="s">
+      <c r="B89" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C81" s="9" t="s">
+      <c r="C89" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D89" s="27" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="15">
+      <c r="A90" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B90" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C90" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D90" s="27" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="15">
+      <c r="A91" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="B91" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="C91" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="D91" s="27" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="30">
+      <c r="A92" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="B92" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="C92" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="D92" s="27"/>
+    </row>
+    <row r="93" spans="1:5" ht="30.75" thickBot="1">
+      <c r="A93" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="B93" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="C93" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="D93" s="21"/>
+    </row>
+    <row r="94" spans="1:5" ht="13.5" thickBot="1"/>
+    <row r="95" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A95" s="83" t="s">
+        <v>214</v>
+      </c>
+      <c r="B95" s="95"/>
+      <c r="C95" s="95"/>
+      <c r="D95" s="96"/>
+      <c r="E95" s="31"/>
+    </row>
+    <row r="96" spans="1:5" ht="15">
+      <c r="A96" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B96" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="15">
+      <c r="A97" s="69" t="s">
+        <v>215</v>
+      </c>
+      <c r="B97" s="34" t="s">
+        <v>216</v>
+      </c>
+      <c r="C97" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="D97" s="71"/>
+    </row>
+    <row r="98" spans="1:5" ht="30">
+      <c r="A98" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="B98" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="C98" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="D98" s="72"/>
+    </row>
+    <row r="99" spans="1:5" ht="30.75" thickBot="1">
+      <c r="A99" s="79" t="s">
+        <v>47</v>
+      </c>
+      <c r="B99" s="35" t="s">
+        <v>217</v>
+      </c>
+      <c r="C99" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="D99" s="74"/>
+    </row>
+    <row r="100" spans="1:5" ht="13.5" thickBot="1"/>
+    <row r="101" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A101" s="83" t="s">
+        <v>184</v>
+      </c>
+      <c r="B101" s="95"/>
+      <c r="C101" s="95"/>
+      <c r="D101" s="96"/>
+      <c r="E101" s="31"/>
+    </row>
+    <row r="102" spans="1:5" ht="15">
+      <c r="A102" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="15">
+      <c r="A103" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="B103" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="C103" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D103" s="10"/>
+    </row>
+    <row r="104" spans="1:5" ht="15">
+      <c r="A104" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B104" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="C104" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D104" s="10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="15">
+      <c r="A105" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="B105" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="C105" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="D105" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="30">
+      <c r="A106" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="B106" s="34" t="s">
+        <v>195</v>
+      </c>
+      <c r="C106" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D106" s="27"/>
+    </row>
+    <row r="107" spans="1:5" ht="15">
+      <c r="A107" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="B107" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="C107" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D107" s="27"/>
+    </row>
+    <row r="108" spans="1:5" ht="15">
+      <c r="A108" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="B108" s="34" t="s">
+        <v>197</v>
+      </c>
+      <c r="C108" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="D108" s="27" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="15">
+      <c r="A109" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="B109" s="34" t="s">
+        <v>198</v>
+      </c>
+      <c r="C109" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="D109" s="27" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="15">
+      <c r="A110" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="B110" s="64" t="s">
+        <v>199</v>
+      </c>
+      <c r="C110" s="65" t="s">
+        <v>110</v>
+      </c>
+      <c r="D110" s="67" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="30.75" thickBot="1">
+      <c r="A111" s="38" t="s">
+        <v>191</v>
+      </c>
+      <c r="B111" s="35" t="s">
+        <v>200</v>
+      </c>
+      <c r="C111" s="66" t="s">
+        <v>98</v>
+      </c>
+      <c r="D111" s="21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="13.5" thickBot="1"/>
+    <row r="113" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A113" s="83" t="s">
+        <v>201</v>
+      </c>
+      <c r="B113" s="95"/>
+      <c r="C113" s="95"/>
+      <c r="D113" s="96"/>
+      <c r="E113" s="31"/>
+    </row>
+    <row r="114" spans="1:5" ht="15">
+      <c r="A114" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D114" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="15">
+      <c r="A115" s="32" t="s">
+        <v>202</v>
+      </c>
+      <c r="B115" s="34" t="s">
+        <v>203</v>
+      </c>
+      <c r="C115" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D115" s="10"/>
+    </row>
+    <row r="116" spans="1:5" ht="30">
+      <c r="A116" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="B116" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="C116" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D116" s="10"/>
+    </row>
+    <row r="117" spans="1:5" ht="30.75" thickBot="1">
+      <c r="A117" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="B117" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="C117" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D117" s="21"/>
+    </row>
+    <row r="119" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A119" s="51"/>
+      <c r="B119" s="39"/>
+      <c r="C119" s="50"/>
+      <c r="D119" s="75"/>
+    </row>
+    <row r="120" spans="1:5" ht="15">
+      <c r="A120" s="97" t="s">
+        <v>65</v>
+      </c>
+      <c r="B120" s="84"/>
+      <c r="C120" s="84"/>
+      <c r="D120" s="85"/>
+      <c r="E120" s="31"/>
+    </row>
+    <row r="121" spans="1:5" ht="15">
+      <c r="A121" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D121" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="15">
+      <c r="A122" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B122" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C122" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D122" s="10"/>
+    </row>
+    <row r="123" spans="1:5" ht="30">
+      <c r="A123" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B123" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C123" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="D123" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="15">
+      <c r="A124" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B124" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C124" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D124" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="15">
+      <c r="A125" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B125" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C125" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D125" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="15">
+      <c r="A126" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C126" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D126" s="10">
+        <v>30</v>
+      </c>
+      <c r="E126" s="80"/>
+    </row>
+    <row r="127" spans="1:5" ht="15">
+      <c r="A127" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B127" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C127" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D127" s="10">
+        <v>7</v>
+      </c>
+      <c r="E127" s="81"/>
+    </row>
+    <row r="128" spans="1:5" ht="15">
+      <c r="A128" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="B128" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C128" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D128" s="10">
+        <v>10</v>
+      </c>
+      <c r="E128" s="82"/>
+    </row>
+    <row r="129" spans="1:5" ht="15">
+      <c r="A129" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="B129" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="C129" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="D129" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="30">
+      <c r="A130" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B130" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="C130" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="D130" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="15">
+      <c r="A131" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B131" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C131" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D131" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="30">
+      <c r="A132" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B132" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C132" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D132" s="10">
+        <v>13</v>
+      </c>
+      <c r="E132" s="37"/>
+    </row>
+    <row r="133" spans="1:5" ht="15">
+      <c r="A133" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B133" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="C133" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D133" s="10">
+        <v>40</v>
+      </c>
+      <c r="E133" s="37"/>
+    </row>
+    <row r="134" spans="1:5" ht="15">
+      <c r="A134" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="D81" s="27" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="15">
-      <c r="A82" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B82" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C82" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="D82" s="27" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="15">
-      <c r="A83" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="B83" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="C83" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="D83" s="27" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="30">
-      <c r="A84" s="29" t="s">
-        <v>183</v>
-      </c>
-      <c r="B84" s="34" t="s">
-        <v>184</v>
-      </c>
-      <c r="C84" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="D84" s="27"/>
-    </row>
-    <row r="85" spans="1:5" ht="30.75" thickBot="1">
-      <c r="A85" s="38" t="s">
-        <v>185</v>
-      </c>
-      <c r="B85" s="35" t="s">
-        <v>184</v>
-      </c>
-      <c r="C85" s="66" t="s">
+      <c r="B134" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C134" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D85" s="21"/>
-    </row>
-    <row r="86" spans="1:5" ht="13.5" thickBot="1"/>
-    <row r="87" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A87" s="90" t="s">
-        <v>217</v>
-      </c>
-      <c r="B87" s="91"/>
-      <c r="C87" s="91"/>
-      <c r="D87" s="92"/>
-      <c r="E87" s="31"/>
-    </row>
-    <row r="88" spans="1:5" ht="15">
-      <c r="A88" s="3" t="s">
+      <c r="D134" s="23"/>
+    </row>
+    <row r="135" spans="1:5" ht="15">
+      <c r="A135" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C135" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D135" s="23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="15">
+      <c r="A136" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B136" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C136" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D136" s="23">
         <v>2</v>
       </c>
-      <c r="B88" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D88" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="15">
-      <c r="A89" s="69" t="s">
+    </row>
+    <row r="137" spans="1:5" ht="15">
+      <c r="A137" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B137" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C137" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D137" s="23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="15">
+      <c r="A138" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="B138" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="C138" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D138" s="23">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="30.75" thickBot="1">
+      <c r="A139" s="76" t="s">
+        <v>12</v>
+      </c>
+      <c r="B139" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C139" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D139" s="14">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A140" s="48"/>
+      <c r="B140" s="49"/>
+      <c r="C140" s="50"/>
+      <c r="D140" s="77"/>
+    </row>
+    <row r="141" spans="1:5" ht="15">
+      <c r="A141" s="86" t="s">
         <v>218</v>
       </c>
-      <c r="B89" s="34" t="s">
-        <v>219</v>
-      </c>
-      <c r="C89" s="70" t="s">
-        <v>8</v>
-      </c>
-      <c r="D89" s="71"/>
-    </row>
-    <row r="90" spans="1:5" ht="30">
-      <c r="A90" s="69" t="s">
-        <v>57</v>
-      </c>
-      <c r="B90" s="64" t="s">
-        <v>35</v>
-      </c>
-      <c r="C90" s="70" t="s">
-        <v>8</v>
-      </c>
-      <c r="D90" s="72"/>
-    </row>
-    <row r="91" spans="1:5" ht="30.75" thickBot="1">
-      <c r="A91" s="97" t="s">
-        <v>48</v>
-      </c>
-      <c r="B91" s="35" t="s">
-        <v>220</v>
-      </c>
-      <c r="C91" s="73" t="s">
-        <v>8</v>
-      </c>
-      <c r="D91" s="74"/>
-    </row>
-    <row r="92" spans="1:5" ht="13.5" thickBot="1"/>
-    <row r="93" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A93" s="90" t="s">
-        <v>187</v>
-      </c>
-      <c r="B93" s="91"/>
-      <c r="C93" s="91"/>
-      <c r="D93" s="92"/>
-      <c r="E93" s="31"/>
-    </row>
-    <row r="94" spans="1:5" ht="15">
-      <c r="A94" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D94" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="15">
-      <c r="A95" s="32" t="s">
-        <v>188</v>
-      </c>
-      <c r="B95" s="34" t="s">
-        <v>195</v>
-      </c>
-      <c r="C95" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D95" s="10"/>
-    </row>
-    <row r="96" spans="1:5" ht="15">
-      <c r="A96" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B96" s="34" t="s">
-        <v>196</v>
-      </c>
-      <c r="C96" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D96" s="10">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="15">
-      <c r="A97" s="29" t="s">
-        <v>189</v>
-      </c>
-      <c r="B97" s="34" t="s">
-        <v>197</v>
-      </c>
-      <c r="C97" s="28" t="s">
-        <v>181</v>
-      </c>
-      <c r="D97" s="10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="30">
-      <c r="A98" s="29" t="s">
-        <v>190</v>
-      </c>
-      <c r="B98" s="34" t="s">
-        <v>198</v>
-      </c>
-      <c r="C98" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D98" s="27"/>
-    </row>
-    <row r="99" spans="1:5" ht="15">
-      <c r="A99" s="29" t="s">
-        <v>191</v>
-      </c>
-      <c r="B99" s="34" t="s">
-        <v>199</v>
-      </c>
-      <c r="C99" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D99" s="27"/>
-    </row>
-    <row r="100" spans="1:5" ht="15">
-      <c r="A100" s="29" t="s">
-        <v>192</v>
-      </c>
-      <c r="B100" s="34" t="s">
-        <v>200</v>
-      </c>
-      <c r="C100" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="D100" s="27" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="15">
-      <c r="A101" s="29" t="s">
-        <v>193</v>
-      </c>
-      <c r="B101" s="34" t="s">
-        <v>201</v>
-      </c>
-      <c r="C101" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="D101" s="27" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="15">
-      <c r="A102" s="68" t="s">
-        <v>64</v>
-      </c>
-      <c r="B102" s="64" t="s">
-        <v>202</v>
-      </c>
-      <c r="C102" s="65" t="s">
-        <v>111</v>
-      </c>
-      <c r="D102" s="67" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" ht="30.75" thickBot="1">
-      <c r="A103" s="38" t="s">
-        <v>194</v>
-      </c>
-      <c r="B103" s="35" t="s">
-        <v>203</v>
-      </c>
-      <c r="C103" s="66" t="s">
-        <v>99</v>
-      </c>
-      <c r="D103" s="21">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" ht="13.5" thickBot="1"/>
-    <row r="105" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A105" s="90" t="s">
-        <v>204</v>
-      </c>
-      <c r="B105" s="91"/>
-      <c r="C105" s="91"/>
-      <c r="D105" s="92"/>
-      <c r="E105" s="31"/>
-    </row>
-    <row r="106" spans="1:5" ht="15">
-      <c r="A106" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C106" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D106" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" ht="15">
-      <c r="A107" s="32" t="s">
-        <v>205</v>
-      </c>
-      <c r="B107" s="34" t="s">
-        <v>206</v>
-      </c>
-      <c r="C107" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D107" s="10"/>
-    </row>
-    <row r="108" spans="1:5" ht="30">
-      <c r="A108" s="32" t="s">
-        <v>188</v>
-      </c>
-      <c r="B108" s="34" t="s">
-        <v>207</v>
-      </c>
-      <c r="C108" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D108" s="10"/>
-    </row>
-    <row r="109" spans="1:5" ht="30.75" thickBot="1">
-      <c r="A109" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="B109" s="35" t="s">
-        <v>208</v>
-      </c>
-      <c r="C109" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D109" s="21"/>
-    </row>
-    <row r="111" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A111" s="51"/>
-      <c r="B111" s="39"/>
-      <c r="C111" s="50"/>
-      <c r="D111" s="75"/>
-    </row>
-    <row r="112" spans="1:5" ht="15">
-      <c r="A112" s="84" t="s">
-        <v>66</v>
-      </c>
-      <c r="B112" s="85"/>
-      <c r="C112" s="85"/>
-      <c r="D112" s="86"/>
-      <c r="E112" s="31"/>
-    </row>
-    <row r="113" spans="1:5" ht="15">
-      <c r="A113" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C113" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D113" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" ht="15">
-      <c r="A114" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="B114" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="C114" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="D114" s="10"/>
-    </row>
-    <row r="115" spans="1:5" ht="30">
-      <c r="A115" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="B115" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="C115" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="D115" s="10">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" ht="15">
-      <c r="A116" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="B116" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="C116" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D116" s="10">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" ht="15">
-      <c r="A117" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="B117" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="C117" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D117" s="10">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" ht="15">
-      <c r="A118" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="B118" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="C118" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D118" s="10">
-        <v>30</v>
-      </c>
-      <c r="E118" s="93"/>
-    </row>
-    <row r="119" spans="1:5" ht="15">
-      <c r="A119" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="B119" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="C119" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D119" s="10">
-        <v>7</v>
-      </c>
-      <c r="E119" s="94"/>
-    </row>
-    <row r="120" spans="1:5" ht="15">
-      <c r="A120" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="B120" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C120" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D120" s="10">
-        <v>10</v>
-      </c>
-      <c r="E120" s="95"/>
-    </row>
-    <row r="121" spans="1:5" ht="15">
-      <c r="A121" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="B121" s="34" t="s">
-        <v>155</v>
-      </c>
-      <c r="C121" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="D121" s="10">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" ht="30">
-      <c r="A122" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="B122" s="34" t="s">
-        <v>156</v>
-      </c>
-      <c r="C122" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="D122" s="10">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" ht="15">
-      <c r="A123" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="B123" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="C123" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D123" s="10">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" ht="30">
-      <c r="A124" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="B124" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="C124" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D124" s="10">
-        <v>13</v>
-      </c>
-      <c r="E124" s="37"/>
-    </row>
-    <row r="125" spans="1:5" ht="15">
-      <c r="A125" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="B125" s="34" t="s">
-        <v>157</v>
-      </c>
-      <c r="C125" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D125" s="10">
-        <v>40</v>
-      </c>
-      <c r="E125" s="37"/>
-    </row>
-    <row r="126" spans="1:5" ht="15">
-      <c r="A126" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="B126" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="C126" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D126" s="23"/>
-    </row>
-    <row r="127" spans="1:5" ht="15">
-      <c r="A127" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="B127" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C127" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D127" s="23">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" ht="15">
-      <c r="A128" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="B128" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="C128" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D128" s="23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" ht="15">
-      <c r="A129" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="B129" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="C129" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D129" s="23">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" ht="15">
-      <c r="A130" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="B130" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="C130" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D130" s="23">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" ht="30.75" thickBot="1">
-      <c r="A131" s="76" t="s">
-        <v>12</v>
-      </c>
-      <c r="B131" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="C131" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="D131" s="14">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A132" s="48"/>
-      <c r="B132" s="49"/>
-      <c r="C132" s="50"/>
-      <c r="D132" s="77"/>
-    </row>
-    <row r="133" spans="1:5" ht="15">
-      <c r="A133" s="78" t="s">
-        <v>221</v>
-      </c>
-      <c r="B133" s="79"/>
-      <c r="C133" s="79"/>
-      <c r="D133" s="80"/>
-      <c r="E133" s="31"/>
-    </row>
-    <row r="134" spans="1:5" ht="15">
-      <c r="A134" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B134" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C134" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D134" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" ht="15">
-      <c r="A135" s="32" t="s">
-        <v>168</v>
-      </c>
-      <c r="B135" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="C135" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="D135" s="10"/>
-    </row>
-    <row r="136" spans="1:5" ht="15">
-      <c r="A136" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="B136" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="C136" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="D136" s="27" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" ht="30">
-      <c r="A137" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="B137" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="C137" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="D137" s="10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" ht="30">
-      <c r="A138" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="B138" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="C138" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D138" s="10"/>
-    </row>
-    <row r="139" spans="1:5" ht="45.75" thickBot="1">
-      <c r="A139" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="B139" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="C139" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D139" s="14"/>
-    </row>
-    <row r="140" spans="1:5" ht="13.5" thickBot="1"/>
-    <row r="141" spans="1:5" ht="15">
-      <c r="A141" s="78" t="s">
-        <v>222</v>
-      </c>
-      <c r="B141" s="79"/>
-      <c r="C141" s="79"/>
-      <c r="D141" s="80"/>
+      <c r="B141" s="87"/>
+      <c r="C141" s="87"/>
+      <c r="D141" s="88"/>
+      <c r="E141" s="31"/>
     </row>
     <row r="142" spans="1:5" ht="15">
       <c r="A142" s="3" t="s">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>3</v>
+        <v>87</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>4</v>
+        <v>88</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>5</v>
+        <v>89</v>
       </c>
     </row>
     <row r="143" spans="1:5" ht="15">
       <c r="A143" s="32" t="s">
-        <v>223</v>
-      </c>
-      <c r="B143" s="8" t="s">
-        <v>224</v>
+        <v>165</v>
+      </c>
+      <c r="B143" s="16" t="s">
+        <v>90</v>
       </c>
       <c r="C143" s="17" t="s">
-        <v>8</v>
+        <v>91</v>
       </c>
       <c r="D143" s="10"/>
     </row>
     <row r="144" spans="1:5" ht="15">
       <c r="A144" s="29" t="s">
-        <v>225</v>
-      </c>
-      <c r="B144" s="8" t="s">
-        <v>226</v>
+        <v>92</v>
+      </c>
+      <c r="B144" s="16" t="s">
+        <v>93</v>
       </c>
       <c r="C144" s="9" t="s">
-        <v>214</v>
+        <v>101</v>
       </c>
       <c r="D144" s="27" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" ht="15">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="30">
       <c r="A145" s="19" t="s">
-        <v>228</v>
+        <v>94</v>
       </c>
       <c r="B145" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C145" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D145" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="30">
+      <c r="A146" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="B146" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C146" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D146" s="10"/>
+    </row>
+    <row r="147" spans="1:4" ht="45.75" thickBot="1">
+      <c r="A147" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B147" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C147" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D147" s="14"/>
+    </row>
+    <row r="148" spans="1:4" ht="13.5" thickBot="1"/>
+    <row r="149" spans="1:4" ht="15">
+      <c r="A149" s="86" t="s">
         <v>229</v>
       </c>
-      <c r="C145" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="D145" s="10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" ht="15">
-      <c r="A146" s="19" t="s">
-        <v>230</v>
-      </c>
-      <c r="B146" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="C146" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="D146" s="10"/>
-    </row>
-    <row r="147" spans="1:4" ht="30.75" thickBot="1">
-      <c r="A147" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="B147" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="C147" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="D147" s="14">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A148" s="1"/>
-      <c r="B148" s="2"/>
-      <c r="C148" s="1"/>
-      <c r="D148" s="1"/>
-    </row>
-    <row r="149" spans="1:4" ht="15">
-      <c r="A149" s="78" t="s">
-        <v>234</v>
-      </c>
-      <c r="B149" s="79"/>
-      <c r="C149" s="79"/>
-      <c r="D149" s="80"/>
+      <c r="B149" s="87"/>
+      <c r="C149" s="87"/>
+      <c r="D149" s="88"/>
     </row>
     <row r="150" spans="1:4" ht="15">
       <c r="A150" s="3" t="s">
@@ -3650,10 +3648,10 @@
     </row>
     <row r="151" spans="1:4" ht="15">
       <c r="A151" s="32" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C151" s="17" t="s">
         <v>8</v>
@@ -3662,10 +3660,10 @@
     </row>
     <row r="152" spans="1:4" ht="30">
       <c r="A152" s="29" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C152" s="9" t="s">
         <v>8</v>
@@ -3674,10 +3672,10 @@
     </row>
     <row r="153" spans="1:4" ht="30">
       <c r="A153" s="19" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C153" s="9" t="s">
         <v>8</v>
@@ -3686,25 +3684,25 @@
     </row>
     <row r="154" spans="1:4" ht="15">
       <c r="A154" s="19" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C154" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D154" s="10"/>
     </row>
     <row r="155" spans="1:4" ht="30.75" thickBot="1">
       <c r="A155" s="11" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B155" s="12" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C155" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D155" s="14">
         <v>6</v>
@@ -3712,22 +3710,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="E118:E120"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A141:D141"/>
-    <mergeCell ref="A149:D149"/>
-    <mergeCell ref="A133:D133"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A30:D30"/>
     <mergeCell ref="A76:D76"/>
-    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="E126:E128"/>
+    <mergeCell ref="A67:D67"/>
     <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A112:D112"/>
-    <mergeCell ref="A68:D68"/>
-    <mergeCell ref="A87:D87"/>
-    <mergeCell ref="A93:D93"/>
-    <mergeCell ref="A105:D105"/>
-    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A149:D149"/>
+    <mergeCell ref="A141:D141"/>
+    <mergeCell ref="A120:D120"/>
+    <mergeCell ref="A95:D95"/>
+    <mergeCell ref="A101:D101"/>
+    <mergeCell ref="A113:D113"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/trunk/GiovanellisPizzariaEntrega1S/TCM - Pizzaria - Semestre 1 - 2014/TLBDII/Dicionario de Dados.xlsx
+++ b/trunk/GiovanellisPizzariaEntrega1S/TCM - Pizzaria - Semestre 1 - 2014/TLBDII/Dicionario de Dados.xlsx
@@ -16,14 +16,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="248">
   <si>
     <t>Dicionário de Dados</t>
   </si>
   <si>
-    <t>Tabela Cliente</t>
-  </si>
-  <si>
     <t>Campo</t>
   </si>
   <si>
@@ -123,9 +120,6 @@
     <t>(FK) CodProduto</t>
   </si>
   <si>
-    <t>Codigo do produto da tabela Produto</t>
-  </si>
-  <si>
     <t>Campo</t>
   </si>
   <si>
@@ -171,9 +165,6 @@
     <t>Inteiro</t>
   </si>
   <si>
-    <t>Tabela Produto</t>
-  </si>
-  <si>
     <t>Campo</t>
   </si>
   <si>
@@ -210,10 +201,64 @@
     <t>Validade</t>
   </si>
   <si>
+    <t>Campo</t>
+  </si>
+  <si>
+    <t>Descrição</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Tamanho</t>
+  </si>
+  <si>
+    <t>(PK) CodFornecedor</t>
+  </si>
+  <si>
+    <t>Código do Forncedor</t>
+  </si>
+  <si>
     <t>Inteiro</t>
   </si>
   <si>
-    <t>Tabela Fornecedor</t>
+    <t>CNPJ/CPF</t>
+  </si>
+  <si>
+    <t>CNPJ do Fornecedor ou CPF do Fornecedor</t>
+  </si>
+  <si>
+    <t>RazaoSocial</t>
+  </si>
+  <si>
+    <t>Razão Social da Empresa</t>
+  </si>
+  <si>
+    <t>NomeFantasia</t>
+  </si>
+  <si>
+    <t>Nome Fantasia do Fornecedor</t>
+  </si>
+  <si>
+    <t>CelularResponsavel</t>
+  </si>
+  <si>
+    <t>EmailResponsavel</t>
+  </si>
+  <si>
+    <t>E-Mail do Fornecedor</t>
+  </si>
+  <si>
+    <t>TelefoneComercial</t>
+  </si>
+  <si>
+    <t>Telefone comercial do Fornecedor</t>
+  </si>
+  <si>
+    <t>(FK) CodPedido</t>
+  </si>
+  <si>
+    <t>(PK) CodFuncionario</t>
   </si>
   <si>
     <t>Campo</t>
@@ -228,72 +273,12 @@
     <t>Tamanho</t>
   </si>
   <si>
-    <t>(PK) CodFornecedor</t>
-  </si>
-  <si>
-    <t>Código do Forncedor</t>
+    <t>Código da Venda</t>
   </si>
   <si>
     <t>Inteiro</t>
   </si>
   <si>
-    <t>CNPJ/CPF</t>
-  </si>
-  <si>
-    <t>CNPJ do Fornecedor ou CPF do Fornecedor</t>
-  </si>
-  <si>
-    <t>RazaoSocial</t>
-  </si>
-  <si>
-    <t>Razão Social da Empresa</t>
-  </si>
-  <si>
-    <t>NomeFantasia</t>
-  </si>
-  <si>
-    <t>Nome Fantasia do Fornecedor</t>
-  </si>
-  <si>
-    <t>CelularResponsavel</t>
-  </si>
-  <si>
-    <t>EmailResponsavel</t>
-  </si>
-  <si>
-    <t>E-Mail do Fornecedor</t>
-  </si>
-  <si>
-    <t>TelefoneComercial</t>
-  </si>
-  <si>
-    <t>Telefone comercial do Fornecedor</t>
-  </si>
-  <si>
-    <t>(FK) CodPedido</t>
-  </si>
-  <si>
-    <t>(PK) CodFuncionario</t>
-  </si>
-  <si>
-    <t>Campo</t>
-  </si>
-  <si>
-    <t>Descrição</t>
-  </si>
-  <si>
-    <t>Tipo</t>
-  </si>
-  <si>
-    <t>Tamanho</t>
-  </si>
-  <si>
-    <t>Código da Venda</t>
-  </si>
-  <si>
-    <t>Inteiro</t>
-  </si>
-  <si>
     <t>ValorVenda</t>
   </si>
   <si>
@@ -303,9 +288,6 @@
     <t>DataVenda</t>
   </si>
   <si>
-    <t>Tabela Permissao</t>
-  </si>
-  <si>
     <t>Cargo</t>
   </si>
   <si>
@@ -336,9 +318,6 @@
     <t>Estado</t>
   </si>
   <si>
-    <t>(FK) CodPermissao</t>
-  </si>
-  <si>
     <t>NomeBanco</t>
   </si>
   <si>
@@ -369,9 +348,6 @@
     <t>Cidade do endereço</t>
   </si>
   <si>
-    <t>Codigo da permissão da tabela Permissao</t>
-  </si>
-  <si>
     <t>Nome do Banco do Fornecedor</t>
   </si>
   <si>
@@ -384,18 +360,9 @@
     <t>Data de Venda do pedido do fornecedor</t>
   </si>
   <si>
-    <t>Codigo do Fornecedor da tabela Fornecedor</t>
-  </si>
-  <si>
-    <t>Codigo do Funcionário que registrou a compra da tabela Funcionario</t>
-  </si>
-  <si>
     <t>(6,2)</t>
   </si>
   <si>
-    <t>DetalhePedido</t>
-  </si>
-  <si>
     <t>Bairro</t>
   </si>
   <si>
@@ -414,9 +381,6 @@
     <t>Celular</t>
   </si>
   <si>
-    <t>Codigo do Funcionario da tabela Funcionario</t>
-  </si>
-  <si>
     <t>Data</t>
   </si>
   <si>
@@ -426,9 +390,6 @@
     <t>Site</t>
   </si>
   <si>
-    <t>(FK) CodCategoria</t>
-  </si>
-  <si>
     <t>Responsável</t>
   </si>
   <si>
@@ -474,9 +435,6 @@
     <t>Boolean</t>
   </si>
   <si>
-    <t>Código da Categoria da tabela Categoria</t>
-  </si>
-  <si>
     <t>Nome do responsável da venda</t>
   </si>
   <si>
@@ -492,21 +450,9 @@
     <t>(7,2)</t>
   </si>
   <si>
-    <t>Código do funcionário para  analisar a permissão do sistema</t>
-  </si>
-  <si>
     <t>Código do detalhe do pedido</t>
   </si>
   <si>
-    <t>Código do produto da tabela produto</t>
-  </si>
-  <si>
-    <t>Código do pedido da tabela pedido</t>
-  </si>
-  <si>
-    <t>(PK) Cod_Func_Permi</t>
-  </si>
-  <si>
     <t>Celular do Cliente</t>
   </si>
   <si>
@@ -519,18 +465,12 @@
     <t>Complemento do endereço</t>
   </si>
   <si>
-    <t>Codigo da tabela funcPermissao</t>
-  </si>
-  <si>
     <t>Login do funcionario</t>
   </si>
   <si>
     <t>Senha do funcionario</t>
   </si>
   <si>
-    <t>Codigo do cliente da tabela Cliente</t>
-  </si>
-  <si>
     <t>DataNascimento</t>
   </si>
   <si>
@@ -561,18 +501,9 @@
     <t>SobePromocao</t>
   </si>
   <si>
-    <t>Variável usado para subir no site</t>
-  </si>
-  <si>
     <t>UsuarioCadastrado</t>
   </si>
   <si>
-    <t>Tabela Promocao</t>
-  </si>
-  <si>
-    <t>Tabela Insumo</t>
-  </si>
-  <si>
     <t>(PK) CodInsumo</t>
   </si>
   <si>
@@ -621,21 +552,12 @@
     <t>Medida em Kg, grama, litro, caixa, unidade</t>
   </si>
   <si>
-    <t>Tabela InsumoFornecedor</t>
-  </si>
-  <si>
     <t>(PK) CodInsumoFornecedor</t>
   </si>
   <si>
     <t>Codigo do insumo fornecedor</t>
   </si>
   <si>
-    <t>Codigo do insumo da tabela Insumo</t>
-  </si>
-  <si>
-    <t>Cod do Fornecedor da tabela Fornecedor</t>
-  </si>
-  <si>
     <t>Observação</t>
   </si>
   <si>
@@ -660,21 +582,6 @@
     <t>Valor do salário do funcionário</t>
   </si>
   <si>
-    <t>Tabela ProdutoPedido</t>
-  </si>
-  <si>
-    <t>(PK) CodPedidoPromocao</t>
-  </si>
-  <si>
-    <t>Código do Pedido Promoção</t>
-  </si>
-  <si>
-    <t>Código do pedido da tabela Pedido</t>
-  </si>
-  <si>
-    <t>Tabela CompraFornecedor</t>
-  </si>
-  <si>
     <t>(PK) codDespesa</t>
   </si>
   <si>
@@ -705,24 +612,15 @@
     <t>O tipo de despesa que foi paga (Luz, Água, Telefone, etc)</t>
   </si>
   <si>
-    <t>Tabela Consumo</t>
-  </si>
-  <si>
     <t>(PK) codConsumo</t>
   </si>
   <si>
     <t>(FK) codProduto</t>
   </si>
   <si>
-    <t>Código do Produto da tabela Produto</t>
-  </si>
-  <si>
     <t>(FK) codInsumo</t>
   </si>
   <si>
-    <t>Código do Insumo da tabela Insumo</t>
-  </si>
-  <si>
     <t>Quantidade</t>
   </si>
   <si>
@@ -742,6 +640,126 @@
   </si>
   <si>
     <t>Char</t>
+  </si>
+  <si>
+    <t>DataCadastro</t>
+  </si>
+  <si>
+    <t>Cliente</t>
+  </si>
+  <si>
+    <t>Codigo do Funcionario da  Funcionario</t>
+  </si>
+  <si>
+    <t>Codigo do cliente da  Cliente</t>
+  </si>
+  <si>
+    <t>Código do produto da  produto</t>
+  </si>
+  <si>
+    <t>Código do pedido da  pedido</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Permissao</t>
+  </si>
+  <si>
+    <t>Codigo da  funcPermissao</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Produto</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Promocao</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Insumo</t>
+  </si>
+  <si>
+    <t>Codigo do insumo da  Insumo</t>
+  </si>
+  <si>
+    <t>Cod do Fornecedor da  Fornecedor</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fornecedor</t>
+  </si>
+  <si>
+    <t>Codigo do Fornecedor da  Fornecedor</t>
+  </si>
+  <si>
+    <t>Codigo do Funcionário que registrou a compra da  Funcionario</t>
+  </si>
+  <si>
+    <t>Código do Produto da  Produto</t>
+  </si>
+  <si>
+    <t>Código do Insumo da  Insumo</t>
+  </si>
+  <si>
+    <t>_DetalhePedido</t>
+  </si>
+  <si>
+    <t>(PK) CodPermissao</t>
+  </si>
+  <si>
+    <t>Código do funcionário para  atrelar a permissão do sistema</t>
+  </si>
+  <si>
+    <t>Define se a promoção estará visível no site</t>
+  </si>
+  <si>
+    <t>Define se só usuários cadastrados terão acesso á promoção</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> _InsumoFornecedor</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> _CompraFornecedor</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> _Consumo</t>
+  </si>
+  <si>
+    <t>_PedidoPromoção</t>
+  </si>
+  <si>
+    <t>(FK) codPedido</t>
+  </si>
+  <si>
+    <t>(FK) codPromoção</t>
+  </si>
+  <si>
+    <t>ID do Pedido vindo da tabela Pedido</t>
+  </si>
+  <si>
+    <t>(PK) CodprodCat</t>
+  </si>
+  <si>
+    <t>ID primário do registro</t>
+  </si>
+  <si>
+    <t>(FK) codCategoria</t>
+  </si>
+  <si>
+    <t>ID da Categoria vindo da tabela Categoria</t>
+  </si>
+  <si>
+    <t>ID da Promoção vindo da tabela Promoção</t>
+  </si>
+  <si>
+    <t>_ProdutoCategoria</t>
+  </si>
+  <si>
+    <t>(PK) CodProdCat</t>
+  </si>
+  <si>
+    <t>ID do Produto vindo da tabela Produto</t>
+  </si>
+  <si>
+    <t>_InsumoCategoria</t>
+  </si>
+  <si>
+    <t>ID do Insumo vindo da tabela Insumo</t>
   </si>
 </sst>
 </file>
@@ -893,7 +911,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -1123,43 +1141,6 @@
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right style="dashDot">
-        <color auto="1"/>
-      </right>
-      <top style="dashDot">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="dashDot">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="dashDot">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="dashDot">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
       <right/>
       <top/>
       <bottom/>
@@ -1265,7 +1246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1370,9 +1351,6 @@
     <xf numFmtId="0" fontId="18" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1402,7 +1380,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1411,7 +1389,7 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1429,16 +1407,11 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1457,91 +1430,61 @@
     <xf numFmtId="0" fontId="18" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1838,10 +1781,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E155"/>
+  <dimension ref="A1:E164"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+      <selection activeCell="A43" sqref="A43:D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="12.75"/>
@@ -1853,12 +1796,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" thickBot="1">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="91"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="70"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1">
       <c r="A2" s="1"/>
@@ -1867,48 +1810,48 @@
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="71" t="s">
+        <v>209</v>
+      </c>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="73"/>
+    </row>
+    <row r="4" spans="1:4" ht="15">
+      <c r="A4" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="94"/>
-    </row>
-    <row r="4" spans="1:4" ht="15">
-      <c r="A4" s="52" t="s">
+      <c r="B4" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="C4" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="D4" s="54" t="s">
         <v>4</v>
-      </c>
-      <c r="D4" s="55" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15">
       <c r="A5" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="C5" s="17" t="s">
         <v>7</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>8</v>
       </c>
       <c r="D5" s="10"/>
     </row>
     <row r="6" spans="1:4" ht="15">
       <c r="A6" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="16" t="s">
-        <v>10</v>
-      </c>
       <c r="C6" s="9" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D6" s="10">
         <v>40</v>
@@ -1916,13 +1859,13 @@
     </row>
     <row r="7" spans="1:4" ht="15">
       <c r="A7" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="C7" s="9" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D7" s="10">
         <v>14</v>
@@ -1930,51 +1873,51 @@
     </row>
     <row r="8" spans="1:4" ht="15">
       <c r="A8" s="22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D8" s="23">
         <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15">
-      <c r="A9" s="47" t="s">
-        <v>174</v>
+      <c r="A9" s="46" t="s">
+        <v>154</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" s="23"/>
     </row>
     <row r="10" spans="1:4" ht="15">
-      <c r="A10" s="47" t="s">
-        <v>175</v>
+      <c r="A10" s="46" t="s">
+        <v>155</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10" s="23"/>
     </row>
     <row r="11" spans="1:4" ht="15">
       <c r="A11" s="22" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D11" s="23">
         <v>30</v>
@@ -1982,13 +1925,13 @@
     </row>
     <row r="12" spans="1:4" ht="15">
       <c r="A12" s="22" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D12" s="23">
         <v>10</v>
@@ -1996,13 +1939,13 @@
     </row>
     <row r="13" spans="1:4" ht="15">
       <c r="A13" s="22" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D13" s="23">
         <v>2</v>
@@ -2010,13 +1953,13 @@
     </row>
     <row r="14" spans="1:4" ht="15">
       <c r="A14" s="22" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D14" s="23">
         <v>30</v>
@@ -2024,13 +1967,13 @@
     </row>
     <row r="15" spans="1:4" ht="30">
       <c r="A15" s="18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D15" s="10">
         <v>40</v>
@@ -2038,13 +1981,13 @@
     </row>
     <row r="16" spans="1:4" ht="15">
       <c r="A16" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="25" t="s">
-        <v>18</v>
-      </c>
       <c r="C16" s="9" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D16" s="26">
         <v>14</v>
@@ -2052,13 +1995,13 @@
     </row>
     <row r="17" spans="1:5" ht="15">
       <c r="A17" s="29" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D17" s="26">
         <v>15</v>
@@ -2066,13 +2009,13 @@
     </row>
     <row r="18" spans="1:5" ht="30">
       <c r="A18" s="22" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D18" s="23">
         <v>40</v>
@@ -2080,646 +2023,646 @@
     </row>
     <row r="19" spans="1:5" ht="15">
       <c r="A19" s="19" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D19" s="10">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A20" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="D20" s="21"/>
+    <row r="20" spans="1:5" ht="15">
+      <c r="A20" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20" s="10"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A21" s="45"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="46"/>
-    </row>
-    <row r="22" spans="1:5" ht="15">
-      <c r="A22" s="86" t="s">
-        <v>239</v>
-      </c>
-      <c r="B22" s="87"/>
-      <c r="C22" s="87"/>
-      <c r="D22" s="88"/>
+      <c r="A21" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D21" s="21"/>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A22" s="44"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="45"/>
     </row>
     <row r="23" spans="1:5" ht="15">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="80" t="s">
+        <v>205</v>
+      </c>
+      <c r="B23" s="81"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="82"/>
+    </row>
+    <row r="24" spans="1:5" ht="15">
+      <c r="A24" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="C24" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="D24" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15">
-      <c r="A24" s="32" t="s">
-        <v>219</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="10"/>
     </row>
     <row r="25" spans="1:5" ht="15">
-      <c r="A25" s="29" t="s">
-        <v>221</v>
+      <c r="A25" s="32" t="s">
+        <v>188</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="D25" s="27" t="s">
-        <v>237</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="10"/>
     </row>
     <row r="26" spans="1:5" ht="15">
-      <c r="A26" s="19" t="s">
-        <v>223</v>
+      <c r="A26" s="29" t="s">
+        <v>190</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>224</v>
+        <v>191</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="D26" s="10">
-        <v>6</v>
+        <v>185</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15">
       <c r="A27" s="19" t="s">
-        <v>225</v>
+        <v>192</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>226</v>
+        <v>193</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="D27" s="10"/>
-    </row>
-    <row r="28" spans="1:5" ht="30.75" thickBot="1">
-      <c r="A28" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="D28" s="14">
+        <v>95</v>
+      </c>
+      <c r="D27" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15">
+      <c r="A28" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D28" s="10"/>
+    </row>
+    <row r="29" spans="1:5" ht="30.75" thickBot="1">
+      <c r="A29" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="D29" s="14">
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A29" s="1"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="1:5" ht="15">
-      <c r="A30" s="97" t="s">
-        <v>238</v>
-      </c>
-      <c r="B30" s="84"/>
-      <c r="C30" s="84"/>
-      <c r="D30" s="85"/>
-      <c r="E30" s="31"/>
+    <row r="30" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A30" s="1"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
     </row>
     <row r="31" spans="1:5" ht="15">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="79" t="s">
+        <v>204</v>
+      </c>
+      <c r="B31" s="77"/>
+      <c r="C31" s="77"/>
+      <c r="D31" s="78"/>
+      <c r="E31" s="31"/>
+    </row>
+    <row r="32" spans="1:5" ht="15">
+      <c r="A32" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="D32" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="5" t="s">
+    </row>
+    <row r="33" spans="1:5" ht="15">
+      <c r="A33" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="B33" s="16" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="15">
-      <c r="A32" s="15" t="s">
+      <c r="C33" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D32" s="10"/>
-    </row>
-    <row r="33" spans="1:5" ht="15">
-      <c r="A33" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="B33" s="34" t="s">
-        <v>147</v>
-      </c>
-      <c r="C33" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="D33" s="10">
-        <v>8</v>
-      </c>
+      <c r="D33" s="10"/>
     </row>
     <row r="34" spans="1:5" ht="15">
       <c r="A34" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="B34" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="B34" s="34" t="s">
-        <v>148</v>
-      </c>
       <c r="C34" s="28" t="s">
-        <v>149</v>
+        <v>103</v>
       </c>
       <c r="D34" s="10">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15">
       <c r="A35" s="29" t="s">
-        <v>176</v>
+        <v>122</v>
       </c>
       <c r="B35" s="34" t="s">
-        <v>177</v>
+        <v>135</v>
       </c>
       <c r="C35" s="28" t="s">
-        <v>178</v>
+        <v>136</v>
       </c>
       <c r="D35" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15">
+      <c r="A36" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="B36" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="C36" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="D36" s="10">
         <v>6</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" ht="30">
-      <c r="A36" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D36" s="10"/>
     </row>
     <row r="37" spans="1:5" ht="30">
       <c r="A37" s="7" t="s">
-        <v>164</v>
+        <v>94</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>170</v>
+        <v>210</v>
       </c>
       <c r="C37" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" s="10"/>
+    </row>
+    <row r="38" spans="1:5" ht="15">
+      <c r="A38" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="10"/>
+    </row>
+    <row r="39" spans="1:5" ht="45">
+      <c r="A39" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="D39" s="10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="30">
+      <c r="A40" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="D40" s="10">
         <v>8</v>
       </c>
-      <c r="D37" s="10"/>
-    </row>
-    <row r="38" spans="1:5" ht="45">
-      <c r="A38" s="7" t="s">
+    </row>
+    <row r="41" spans="1:5" ht="45.75" thickBot="1">
+      <c r="A41" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="B41" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="C41" s="62" t="s">
+        <v>185</v>
+      </c>
+      <c r="D41" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A42" s="1"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+    </row>
+    <row r="43" spans="1:5" ht="15">
+      <c r="A43" s="74" t="s">
+        <v>226</v>
+      </c>
+      <c r="B43" s="77"/>
+      <c r="C43" s="77"/>
+      <c r="D43" s="78"/>
+      <c r="E43" s="31"/>
+    </row>
+    <row r="44" spans="1:5" ht="15">
+      <c r="A44" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15">
+      <c r="A45" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="B45" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="10"/>
+    </row>
+    <row r="46" spans="1:5" ht="15">
+      <c r="A46" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B46" s="34" t="s">
+        <v>212</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="10"/>
+    </row>
+    <row r="47" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A47" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="B47" s="35" t="s">
+        <v>213</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="14"/>
+    </row>
+    <row r="48" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A48" s="44"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="45"/>
+    </row>
+    <row r="49" spans="1:4" ht="15">
+      <c r="A49" s="74" t="s">
         <v>206</v>
       </c>
-      <c r="B38" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="C38" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="D38" s="10">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="30">
-      <c r="A39" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="C39" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="D39" s="10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="45.75" thickBot="1">
-      <c r="A40" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="B40" s="35" t="s">
-        <v>210</v>
-      </c>
-      <c r="C40" s="66" t="s">
-        <v>211</v>
-      </c>
-      <c r="D40" s="14">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A41" s="1"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-    </row>
-    <row r="42" spans="1:5" ht="15">
-      <c r="A42" s="97" t="s">
-        <v>125</v>
-      </c>
-      <c r="B42" s="84"/>
-      <c r="C42" s="84"/>
-      <c r="D42" s="85"/>
-      <c r="E42" s="31"/>
-    </row>
-    <row r="43" spans="1:5" ht="15">
-      <c r="A43" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="15">
-      <c r="A44" s="32" t="s">
-        <v>138</v>
-      </c>
-      <c r="B44" s="34" t="s">
-        <v>159</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D44" s="10"/>
-    </row>
-    <row r="45" spans="1:5" ht="30">
-      <c r="A45" s="32" t="s">
+      <c r="B49" s="77"/>
+      <c r="C49" s="77"/>
+      <c r="D49" s="78"/>
+    </row>
+    <row r="50" spans="1:4" ht="15">
+      <c r="A50" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B45" s="34" t="s">
-        <v>160</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D45" s="10"/>
-    </row>
-    <row r="46" spans="1:5" ht="30.75" thickBot="1">
-      <c r="A46" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="B46" s="35" t="s">
-        <v>161</v>
-      </c>
-      <c r="C46" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D46" s="14"/>
-    </row>
-    <row r="47" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A47" s="45"/>
-      <c r="B47" s="39"/>
-      <c r="C47" s="40"/>
-      <c r="D47" s="46"/>
-    </row>
-    <row r="48" spans="1:5" ht="15">
-      <c r="A48" s="83" t="s">
-        <v>240</v>
-      </c>
-      <c r="B48" s="84"/>
-      <c r="C48" s="84"/>
-      <c r="D48" s="85"/>
-    </row>
-    <row r="49" spans="1:4" ht="15">
-      <c r="A49" s="3" t="s">
+      <c r="B50" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C50" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="D50" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C49" s="5" t="s">
+    </row>
+    <row r="51" spans="1:4" ht="15">
+      <c r="A51" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B51" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="C51" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D49" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="15">
-      <c r="A50" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B50" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="C50" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D50" s="10"/>
-    </row>
-    <row r="51" spans="1:4" ht="15">
-      <c r="A51" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="B51" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="D51" s="10">
-        <v>40</v>
-      </c>
+      <c r="D51" s="10"/>
     </row>
     <row r="52" spans="1:4" ht="15">
       <c r="A52" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B52" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D52" s="10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15">
+      <c r="A53" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B53" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B52" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="D52" s="10">
+      <c r="C53" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D53" s="10">
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15">
-      <c r="A53" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B53" s="34" t="s">
-        <v>145</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="D53" s="23">
-        <v>40</v>
-      </c>
-    </row>
     <row r="54" spans="1:4" ht="15">
-      <c r="A54" s="47" t="s">
-        <v>12</v>
+      <c r="A54" s="22" t="s">
+        <v>10</v>
       </c>
       <c r="B54" s="34" t="s">
-        <v>166</v>
-      </c>
-      <c r="C54" s="28" t="s">
-        <v>98</v>
+        <v>132</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>92</v>
       </c>
       <c r="D54" s="23">
         <v>40</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15">
-      <c r="A55" s="47" t="s">
-        <v>174</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="C55" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D55" s="23"/>
+      <c r="A55" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="B55" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="C55" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="D55" s="23">
+        <v>40</v>
+      </c>
     </row>
     <row r="56" spans="1:4" ht="15">
-      <c r="A56" s="22" t="s">
-        <v>103</v>
+      <c r="A56" s="46" t="s">
+        <v>154</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="D56" s="23">
-        <v>10</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="C56" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" s="23"/>
     </row>
     <row r="57" spans="1:4" ht="15">
       <c r="A57" s="22" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>241</v>
+        <v>92</v>
       </c>
       <c r="D57" s="23">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15">
       <c r="A58" s="22" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>98</v>
+        <v>207</v>
       </c>
       <c r="D58" s="23">
-        <v>30</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="15">
       <c r="A59" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="B59" s="34" t="s">
-        <v>141</v>
+        <v>98</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>109</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D59" s="23">
         <v>30</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="15">
-      <c r="A60" s="18" t="s">
+      <c r="A60" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="B60" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D60" s="23">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15">
+      <c r="A61" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B61" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B60" s="16" t="s">
+      <c r="C61" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D61" s="10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="15">
+      <c r="A62" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="B62" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D62" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15">
+      <c r="A63" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C60" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="D60" s="10">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="15">
-      <c r="A61" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="B61" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="C61" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="D61" s="10">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="15">
-      <c r="A62" s="24" t="s">
+      <c r="B63" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="B62" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C62" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="D62" s="10">
+      <c r="C63" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D63" s="10">
         <v>14</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="30">
-      <c r="A63" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="B63" s="34" t="s">
-        <v>179</v>
-      </c>
-      <c r="C63" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="D63" s="10"/>
-    </row>
-    <row r="64" spans="1:4" ht="15">
-      <c r="A64" s="68" t="s">
-        <v>212</v>
-      </c>
-      <c r="B64" s="64" t="s">
-        <v>213</v>
-      </c>
-      <c r="C64" s="65" t="s">
-        <v>101</v>
-      </c>
-      <c r="D64" s="78">
+    <row r="64" spans="1:4" ht="30">
+      <c r="A64" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="B64" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="C64" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="D64" s="10"/>
+    </row>
+    <row r="65" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A65" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="C65" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="D65" s="14">
         <v>6</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" ht="30.75" thickBot="1">
-      <c r="A65" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="B65" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="C65" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="D65" s="14"/>
     </row>
     <row r="66" spans="1:5" ht="15.75" thickBot="1">
       <c r="A66" s="1"/>
-      <c r="B66" s="42"/>
-      <c r="C66" s="43"/>
-      <c r="D66" s="41"/>
+      <c r="B66" s="41"/>
+      <c r="C66" s="42"/>
+      <c r="D66" s="40"/>
     </row>
     <row r="67" spans="1:5" ht="15">
-      <c r="A67" s="83" t="s">
-        <v>95</v>
-      </c>
-      <c r="B67" s="84"/>
-      <c r="C67" s="84"/>
-      <c r="D67" s="85"/>
+      <c r="A67" s="74" t="s">
+        <v>214</v>
+      </c>
+      <c r="B67" s="77"/>
+      <c r="C67" s="77"/>
+      <c r="D67" s="78"/>
       <c r="E67" s="31"/>
     </row>
     <row r="68" spans="1:5" ht="15">
       <c r="A68" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="C68" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="D68" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D68" s="6" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="59" t="s">
-        <v>162</v>
-      </c>
-      <c r="B69" s="60" t="s">
-        <v>167</v>
-      </c>
-      <c r="C69" s="61" t="s">
-        <v>8</v>
-      </c>
-      <c r="D69" s="44"/>
+      <c r="A69" s="56" t="s">
+        <v>227</v>
+      </c>
+      <c r="B69" s="57" t="s">
+        <v>215</v>
+      </c>
+      <c r="C69" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="D69" s="43"/>
     </row>
     <row r="70" spans="1:5" ht="15">
       <c r="A70" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="B70" s="60" t="s">
-        <v>168</v>
-      </c>
-      <c r="C70" s="61" t="s">
-        <v>98</v>
-      </c>
-      <c r="D70" s="63">
+        <v>119</v>
+      </c>
+      <c r="B70" s="57" t="s">
+        <v>149</v>
+      </c>
+      <c r="C70" s="58" t="s">
+        <v>92</v>
+      </c>
+      <c r="D70" s="59">
         <v>20</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="15">
       <c r="A71" s="19" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="B71" s="34" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="C71" s="28" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D71" s="10">
         <v>20</v>
@@ -2727,13 +2670,13 @@
     </row>
     <row r="72" spans="1:5" ht="15">
       <c r="A72" s="19" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B72" s="34" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C72" s="28" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D72" s="10">
         <v>20</v>
@@ -2741,991 +2684,1072 @@
     </row>
     <row r="73" spans="1:5" ht="30">
       <c r="A73" s="32" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B73" s="34" t="s">
-        <v>158</v>
+        <v>228</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D73" s="10"/>
     </row>
     <row r="74" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A74" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="B74" s="57"/>
-      <c r="C74" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="D74" s="58"/>
-    </row>
-    <row r="75" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A75" s="1"/>
-      <c r="B75" s="42"/>
-      <c r="C75" s="40"/>
-      <c r="D75" s="41"/>
+      <c r="A74" s="1"/>
+      <c r="B74" s="41"/>
+      <c r="C74" s="39"/>
+      <c r="D74" s="40"/>
+    </row>
+    <row r="75" spans="1:5" ht="15">
+      <c r="A75" s="80" t="s">
+        <v>216</v>
+      </c>
+      <c r="B75" s="81"/>
+      <c r="C75" s="81"/>
+      <c r="D75" s="82"/>
+      <c r="E75" s="31"/>
     </row>
     <row r="76" spans="1:5" ht="15">
-      <c r="A76" s="86" t="s">
+      <c r="A76" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C76" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B76" s="87"/>
-      <c r="C76" s="87"/>
-      <c r="D76" s="88"/>
-      <c r="E76" s="31"/>
+      <c r="D76" s="6" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="77" spans="1:5" ht="15">
-      <c r="A77" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B77" s="4" t="s">
+      <c r="A77" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="B77" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="D77" s="6" t="s">
+      <c r="C77" s="17" t="s">
         <v>55</v>
       </c>
+      <c r="D77" s="10"/>
     </row>
     <row r="78" spans="1:5" ht="15">
-      <c r="A78" s="15" t="s">
+      <c r="A78" s="18" t="s">
         <v>56</v>
       </c>
       <c r="B78" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C78" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="D78" s="10"/>
+      <c r="C78" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D78" s="10">
+        <v>40</v>
+      </c>
     </row>
     <row r="79" spans="1:5" ht="15">
       <c r="A79" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B79" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="B79" s="16" t="s">
-        <v>60</v>
-      </c>
       <c r="C79" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="D79" s="10">
+        <v>95</v>
+      </c>
+      <c r="D79" s="27" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="30.75" thickBot="1">
+      <c r="A80" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="B80" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="C80" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="D80" s="21"/>
+    </row>
+    <row r="81" spans="1:5" ht="13.5" thickBot="1"/>
+    <row r="82" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A82" s="74" t="s">
+        <v>217</v>
+      </c>
+      <c r="B82" s="75"/>
+      <c r="C82" s="75"/>
+      <c r="D82" s="76"/>
+      <c r="E82" s="31"/>
+    </row>
+    <row r="83" spans="1:5" ht="15">
+      <c r="A83" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="15">
+      <c r="A84" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B84" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C84" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D84" s="10"/>
+    </row>
+    <row r="85" spans="1:5" ht="15">
+      <c r="A85" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B85" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D85" s="10">
         <v>40</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="15">
-      <c r="A80" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="B80" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="C80" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="D80" s="27" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="30">
-      <c r="A81" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="B81" s="34" t="s">
-        <v>150</v>
-      </c>
-      <c r="C81" s="28" t="s">
-        <v>151</v>
-      </c>
-      <c r="D81" s="10"/>
-    </row>
-    <row r="82" spans="1:5" ht="30.75" thickBot="1">
-      <c r="A82" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="B82" s="35" t="s">
-        <v>152</v>
-      </c>
-      <c r="C82" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="D82" s="21"/>
-    </row>
-    <row r="83" spans="1:5" ht="13.5" thickBot="1"/>
-    <row r="84" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A84" s="83" t="s">
-        <v>183</v>
-      </c>
-      <c r="B84" s="95"/>
-      <c r="C84" s="95"/>
-      <c r="D84" s="96"/>
-      <c r="E84" s="31"/>
-    </row>
-    <row r="85" spans="1:5" ht="15">
-      <c r="A85" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D85" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
     <row r="86" spans="1:5" ht="15">
-      <c r="A86" s="15" t="s">
-        <v>23</v>
+      <c r="A86" s="18" t="s">
+        <v>27</v>
       </c>
       <c r="B86" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C86" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D86" s="10"/>
+        <v>28</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D86" s="10">
+        <v>50</v>
+      </c>
     </row>
     <row r="87" spans="1:5" ht="15">
       <c r="A87" s="18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B87" s="16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="D87" s="10">
-        <v>40</v>
+        <v>95</v>
+      </c>
+      <c r="D87" s="27" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="15">
       <c r="A88" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B88" s="16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C88" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D88" s="27" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="15">
+      <c r="A89" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="B89" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="C89" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="D89" s="27" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="30">
+      <c r="A90" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="B90" s="34" t="s">
+        <v>229</v>
+      </c>
+      <c r="C90" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="D90" s="27"/>
+    </row>
+    <row r="91" spans="1:5" ht="45.75" thickBot="1">
+      <c r="A91" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="B91" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="C91" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="D91" s="21"/>
+    </row>
+    <row r="92" spans="1:5" ht="13.5" thickBot="1"/>
+    <row r="93" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A93" s="74" t="s">
+        <v>218</v>
+      </c>
+      <c r="B93" s="75"/>
+      <c r="C93" s="75"/>
+      <c r="D93" s="76"/>
+      <c r="E93" s="31"/>
+    </row>
+    <row r="94" spans="1:5" ht="15">
+      <c r="A94" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="15">
+      <c r="A95" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="B95" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="C95" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D95" s="10"/>
+    </row>
+    <row r="96" spans="1:5" ht="15">
+      <c r="A96" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B96" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="C96" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D96" s="10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="15">
+      <c r="A97" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="B97" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="C97" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="D97" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="30">
+      <c r="A98" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="B98" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="C98" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D98" s="27"/>
+    </row>
+    <row r="99" spans="1:5" ht="15">
+      <c r="A99" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="B99" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="C99" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D99" s="27"/>
+    </row>
+    <row r="100" spans="1:5" ht="15">
+      <c r="A100" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="B100" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="C100" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="D100" s="27" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="15">
+      <c r="A101" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="B101" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="C101" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="D101" s="27" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="15">
+      <c r="A102" s="64" t="s">
+        <v>60</v>
+      </c>
+      <c r="B102" s="60" t="s">
+        <v>176</v>
+      </c>
+      <c r="C102" s="61" t="s">
+        <v>103</v>
+      </c>
+      <c r="D102" s="63" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="30.75" thickBot="1">
+      <c r="A103" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="B103" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="C103" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="D103" s="21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="13.5" thickBot="1"/>
+    <row r="105" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A105" s="74" t="s">
+        <v>231</v>
+      </c>
+      <c r="B105" s="75"/>
+      <c r="C105" s="75"/>
+      <c r="D105" s="76"/>
+      <c r="E105" s="31"/>
+    </row>
+    <row r="106" spans="1:5" ht="15">
+      <c r="A106" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="15">
+      <c r="A107" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="B107" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="C107" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D107" s="10"/>
+    </row>
+    <row r="108" spans="1:5" ht="15">
+      <c r="A108" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="B108" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="C108" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D108" s="10"/>
+    </row>
+    <row r="109" spans="1:5" ht="30.75" thickBot="1">
+      <c r="A109" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="B109" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="C109" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D109" s="21"/>
+    </row>
+    <row r="111" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A111" s="50"/>
+      <c r="B111" s="38"/>
+      <c r="C111" s="49"/>
+      <c r="D111" s="65"/>
+    </row>
+    <row r="112" spans="1:5" ht="15">
+      <c r="A112" s="79" t="s">
+        <v>221</v>
+      </c>
+      <c r="B112" s="77"/>
+      <c r="C112" s="77"/>
+      <c r="D112" s="78"/>
+      <c r="E112" s="31"/>
+    </row>
+    <row r="113" spans="1:5" ht="15">
+      <c r="A113" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="15">
+      <c r="A114" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B114" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C114" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D114" s="10"/>
+    </row>
+    <row r="115" spans="1:5" ht="30">
+      <c r="A115" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B115" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C115" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="D115" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="15">
+      <c r="A116" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B116" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C116" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D116" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="15">
+      <c r="A117" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B117" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C117" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D117" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="15">
+      <c r="A118" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C118" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D118" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="15">
+      <c r="A119" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C119" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D119" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="15">
+      <c r="A120" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C120" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D120" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="15">
+      <c r="A121" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="B121" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="C121" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="D121" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="30">
+      <c r="A122" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B122" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="C122" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="D122" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="15">
+      <c r="A123" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B123" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C123" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D123" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="30">
+      <c r="A124" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B124" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C124" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D124" s="10">
+        <v>13</v>
+      </c>
+      <c r="E124" s="36"/>
+    </row>
+    <row r="125" spans="1:5" ht="15">
+      <c r="A125" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B125" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="C125" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D125" s="10">
+        <v>40</v>
+      </c>
+      <c r="E125" s="36"/>
+    </row>
+    <row r="126" spans="1:5" ht="15">
+      <c r="A126" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C126" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D126" s="23"/>
+    </row>
+    <row r="127" spans="1:5" ht="15">
+      <c r="A127" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="B127" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C127" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D127" s="23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="15">
+      <c r="A128" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="B128" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C128" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D128" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="15">
+      <c r="A129" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="D88" s="10">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="15">
-      <c r="A89" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B89" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C89" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="D89" s="27" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="15">
-      <c r="A90" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B90" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C90" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="D90" s="27" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="15">
-      <c r="A91" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="B91" s="34" t="s">
+      <c r="B129" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C129" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D129" s="23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="15">
+      <c r="A130" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="B130" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="C91" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="D91" s="27" t="s">
+      <c r="C130" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D130" s="23">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="30.75" thickBot="1">
+      <c r="A131" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="B131" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C131" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D131" s="14">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A132" s="47"/>
+      <c r="B132" s="48"/>
+      <c r="C132" s="49"/>
+      <c r="D132" s="67"/>
+    </row>
+    <row r="133" spans="1:5" ht="15">
+      <c r="A133" s="83" t="s">
+        <v>232</v>
+      </c>
+      <c r="B133" s="81"/>
+      <c r="C133" s="81"/>
+      <c r="D133" s="82"/>
+      <c r="E133" s="31"/>
+    </row>
+    <row r="134" spans="1:5" ht="15">
+      <c r="A134" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D134" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="15">
+      <c r="A135" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="B135" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C135" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="D135" s="10"/>
+    </row>
+    <row r="136" spans="1:5" ht="15">
+      <c r="A136" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="B136" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C136" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D136" s="27" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="30">
-      <c r="A92" s="29" t="s">
-        <v>180</v>
-      </c>
-      <c r="B92" s="34" t="s">
-        <v>181</v>
-      </c>
-      <c r="C92" s="28" t="s">
-        <v>151</v>
-      </c>
-      <c r="D92" s="27"/>
-    </row>
-    <row r="93" spans="1:5" ht="30.75" thickBot="1">
-      <c r="A93" s="38" t="s">
-        <v>182</v>
-      </c>
-      <c r="B93" s="35" t="s">
-        <v>181</v>
-      </c>
-      <c r="C93" s="66" t="s">
+    <row r="137" spans="1:5" ht="30">
+      <c r="A137" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B137" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C137" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D137" s="10">
         <v>8</v>
       </c>
-      <c r="D93" s="21"/>
-    </row>
-    <row r="94" spans="1:5" ht="13.5" thickBot="1"/>
-    <row r="95" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A95" s="83" t="s">
-        <v>214</v>
-      </c>
-      <c r="B95" s="95"/>
-      <c r="C95" s="95"/>
-      <c r="D95" s="96"/>
-      <c r="E95" s="31"/>
-    </row>
-    <row r="96" spans="1:5" ht="15">
-      <c r="A96" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B96" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="C96" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D96" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="15">
-      <c r="A97" s="69" t="s">
-        <v>215</v>
-      </c>
-      <c r="B97" s="34" t="s">
-        <v>216</v>
-      </c>
-      <c r="C97" s="70" t="s">
-        <v>8</v>
-      </c>
-      <c r="D97" s="71"/>
-    </row>
-    <row r="98" spans="1:5" ht="30">
-      <c r="A98" s="69" t="s">
-        <v>56</v>
-      </c>
-      <c r="B98" s="64" t="s">
-        <v>35</v>
-      </c>
-      <c r="C98" s="70" t="s">
-        <v>8</v>
-      </c>
-      <c r="D98" s="72"/>
-    </row>
-    <row r="99" spans="1:5" ht="30.75" thickBot="1">
-      <c r="A99" s="79" t="s">
-        <v>47</v>
-      </c>
-      <c r="B99" s="35" t="s">
-        <v>217</v>
-      </c>
-      <c r="C99" s="73" t="s">
-        <v>8</v>
-      </c>
-      <c r="D99" s="74"/>
-    </row>
-    <row r="100" spans="1:5" ht="13.5" thickBot="1"/>
-    <row r="101" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A101" s="83" t="s">
-        <v>184</v>
-      </c>
-      <c r="B101" s="95"/>
-      <c r="C101" s="95"/>
-      <c r="D101" s="96"/>
-      <c r="E101" s="31"/>
-    </row>
-    <row r="102" spans="1:5" ht="15">
-      <c r="A102" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C102" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D102" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" ht="15">
-      <c r="A103" s="32" t="s">
-        <v>185</v>
-      </c>
-      <c r="B103" s="34" t="s">
-        <v>192</v>
-      </c>
-      <c r="C103" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D103" s="10"/>
-    </row>
-    <row r="104" spans="1:5" ht="15">
-      <c r="A104" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B104" s="34" t="s">
-        <v>193</v>
-      </c>
-      <c r="C104" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="D104" s="10">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" ht="15">
-      <c r="A105" s="29" t="s">
-        <v>186</v>
-      </c>
-      <c r="B105" s="34" t="s">
-        <v>194</v>
-      </c>
-      <c r="C105" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="D105" s="10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" ht="30">
-      <c r="A106" s="29" t="s">
-        <v>187</v>
-      </c>
-      <c r="B106" s="34" t="s">
-        <v>195</v>
-      </c>
-      <c r="C106" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D106" s="27"/>
-    </row>
-    <row r="107" spans="1:5" ht="15">
-      <c r="A107" s="29" t="s">
-        <v>188</v>
-      </c>
-      <c r="B107" s="34" t="s">
-        <v>196</v>
-      </c>
-      <c r="C107" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D107" s="27"/>
-    </row>
-    <row r="108" spans="1:5" ht="15">
-      <c r="A108" s="29" t="s">
-        <v>189</v>
-      </c>
-      <c r="B108" s="34" t="s">
-        <v>197</v>
-      </c>
-      <c r="C108" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="D108" s="27" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" ht="15">
-      <c r="A109" s="29" t="s">
-        <v>190</v>
-      </c>
-      <c r="B109" s="34" t="s">
-        <v>198</v>
-      </c>
-      <c r="C109" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="D109" s="27" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" ht="15">
-      <c r="A110" s="68" t="s">
-        <v>63</v>
-      </c>
-      <c r="B110" s="64" t="s">
-        <v>199</v>
-      </c>
-      <c r="C110" s="65" t="s">
-        <v>110</v>
-      </c>
-      <c r="D110" s="67" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" ht="30.75" thickBot="1">
-      <c r="A111" s="38" t="s">
-        <v>191</v>
-      </c>
-      <c r="B111" s="35" t="s">
-        <v>200</v>
-      </c>
-      <c r="C111" s="66" t="s">
-        <v>98</v>
-      </c>
-      <c r="D111" s="21">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" ht="13.5" thickBot="1"/>
-    <row r="113" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A113" s="83" t="s">
-        <v>201</v>
-      </c>
-      <c r="B113" s="95"/>
-      <c r="C113" s="95"/>
-      <c r="D113" s="96"/>
-      <c r="E113" s="31"/>
-    </row>
-    <row r="114" spans="1:5" ht="15">
-      <c r="A114" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C114" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D114" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" ht="15">
-      <c r="A115" s="32" t="s">
-        <v>202</v>
-      </c>
-      <c r="B115" s="34" t="s">
-        <v>203</v>
-      </c>
-      <c r="C115" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D115" s="10"/>
-    </row>
-    <row r="116" spans="1:5" ht="30">
-      <c r="A116" s="32" t="s">
-        <v>185</v>
-      </c>
-      <c r="B116" s="34" t="s">
-        <v>204</v>
-      </c>
-      <c r="C116" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D116" s="10"/>
-    </row>
-    <row r="117" spans="1:5" ht="30.75" thickBot="1">
-      <c r="A117" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="B117" s="35" t="s">
-        <v>205</v>
-      </c>
-      <c r="C117" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D117" s="21"/>
-    </row>
-    <row r="119" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A119" s="51"/>
-      <c r="B119" s="39"/>
-      <c r="C119" s="50"/>
-      <c r="D119" s="75"/>
-    </row>
-    <row r="120" spans="1:5" ht="15">
-      <c r="A120" s="97" t="s">
-        <v>65</v>
-      </c>
-      <c r="B120" s="84"/>
-      <c r="C120" s="84"/>
-      <c r="D120" s="85"/>
-      <c r="E120" s="31"/>
-    </row>
-    <row r="121" spans="1:5" ht="15">
-      <c r="A121" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B121" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C121" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D121" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" ht="15">
-      <c r="A122" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="B122" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="C122" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="D122" s="10"/>
-    </row>
-    <row r="123" spans="1:5" ht="30">
-      <c r="A123" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="B123" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C123" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="D123" s="10">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" ht="15">
-      <c r="A124" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="B124" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="C124" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="D124" s="10">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" ht="15">
-      <c r="A125" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="B125" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="C125" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="D125" s="10">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" ht="15">
-      <c r="A126" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="B126" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="C126" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="D126" s="10">
-        <v>30</v>
-      </c>
-      <c r="E126" s="80"/>
-    </row>
-    <row r="127" spans="1:5" ht="15">
-      <c r="A127" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="B127" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="C127" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="D127" s="10">
+    </row>
+    <row r="138" spans="1:5" ht="30">
+      <c r="A138" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="B138" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="C138" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E127" s="81"/>
-    </row>
-    <row r="128" spans="1:5" ht="15">
-      <c r="A128" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="B128" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="C128" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="D128" s="10">
-        <v>10</v>
-      </c>
-      <c r="E128" s="82"/>
-    </row>
-    <row r="129" spans="1:5" ht="15">
-      <c r="A129" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="B129" s="34" t="s">
-        <v>153</v>
-      </c>
-      <c r="C129" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="D129" s="10">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" ht="30">
-      <c r="A130" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="B130" s="34" t="s">
-        <v>154</v>
-      </c>
-      <c r="C130" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="D130" s="10">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" ht="15">
-      <c r="A131" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="B131" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="C131" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="D131" s="10">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" ht="30">
-      <c r="A132" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="B132" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="C132" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="D132" s="10">
-        <v>13</v>
-      </c>
-      <c r="E132" s="37"/>
-    </row>
-    <row r="133" spans="1:5" ht="15">
-      <c r="A133" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="B133" s="34" t="s">
-        <v>155</v>
-      </c>
-      <c r="C133" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="D133" s="10">
-        <v>40</v>
-      </c>
-      <c r="E133" s="37"/>
-    </row>
-    <row r="134" spans="1:5" ht="15">
-      <c r="A134" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="B134" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="C134" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D134" s="23"/>
-    </row>
-    <row r="135" spans="1:5" ht="15">
-      <c r="A135" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="B135" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="C135" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="D135" s="23">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" ht="15">
-      <c r="A136" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="B136" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C136" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="D136" s="23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" ht="15">
-      <c r="A137" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="B137" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="C137" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="D137" s="23">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" ht="15">
-      <c r="A138" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="B138" s="34" t="s">
-        <v>156</v>
-      </c>
-      <c r="C138" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="D138" s="23">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" ht="30.75" thickBot="1">
-      <c r="A139" s="76" t="s">
-        <v>12</v>
+      <c r="D138" s="10"/>
+    </row>
+    <row r="139" spans="1:5" ht="45.75" thickBot="1">
+      <c r="A139" s="11" t="s">
+        <v>94</v>
       </c>
       <c r="B139" s="12" t="s">
-        <v>113</v>
+        <v>223</v>
       </c>
       <c r="C139" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="D139" s="14">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A140" s="48"/>
-      <c r="B140" s="49"/>
-      <c r="C140" s="50"/>
-      <c r="D140" s="77"/>
-    </row>
+        <v>7</v>
+      </c>
+      <c r="D139" s="14"/>
+    </row>
+    <row r="140" spans="1:5" ht="13.5" thickBot="1"/>
     <row r="141" spans="1:5" ht="15">
-      <c r="A141" s="86" t="s">
-        <v>218</v>
-      </c>
-      <c r="B141" s="87"/>
-      <c r="C141" s="87"/>
-      <c r="D141" s="88"/>
-      <c r="E141" s="31"/>
+      <c r="A141" s="83" t="s">
+        <v>233</v>
+      </c>
+      <c r="B141" s="81"/>
+      <c r="C141" s="81"/>
+      <c r="D141" s="82"/>
     </row>
     <row r="142" spans="1:5" ht="15">
       <c r="A142" s="3" t="s">
-        <v>86</v>
+        <v>1</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>87</v>
+        <v>2</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>89</v>
+        <v>4</v>
       </c>
     </row>
     <row r="143" spans="1:5" ht="15">
       <c r="A143" s="32" t="s">
-        <v>165</v>
-      </c>
-      <c r="B143" s="16" t="s">
-        <v>90</v>
+        <v>198</v>
+      </c>
+      <c r="B143" s="8" t="s">
+        <v>189</v>
       </c>
       <c r="C143" s="17" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="D143" s="10"/>
     </row>
     <row r="144" spans="1:5" ht="15">
       <c r="A144" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="B144" s="16" t="s">
-        <v>93</v>
+        <v>199</v>
+      </c>
+      <c r="B144" s="8" t="s">
+        <v>224</v>
       </c>
       <c r="C144" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="D144" s="27" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" ht="30">
+        <v>7</v>
+      </c>
+      <c r="D144" s="27"/>
+    </row>
+    <row r="145" spans="1:4" ht="15">
       <c r="A145" s="19" t="s">
-        <v>94</v>
+        <v>200</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>121</v>
+        <v>225</v>
       </c>
       <c r="C145" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="D145" s="10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" ht="30">
-      <c r="A146" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="B146" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="C146" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D146" s="10"/>
-    </row>
-    <row r="147" spans="1:4" ht="45.75" thickBot="1">
-      <c r="A147" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="B147" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="C147" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D147" s="14"/>
-    </row>
-    <row r="148" spans="1:4" ht="13.5" thickBot="1"/>
+        <v>7</v>
+      </c>
+      <c r="D145" s="10"/>
+    </row>
+    <row r="146" spans="1:4" ht="30.75" thickBot="1">
+      <c r="A146" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="B146" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="C146" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D146" s="14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="13.5" thickBot="1"/>
+    <row r="148" spans="1:4" ht="15">
+      <c r="A148" s="83" t="s">
+        <v>234</v>
+      </c>
+      <c r="B148" s="81"/>
+      <c r="C148" s="81"/>
+      <c r="D148" s="82"/>
+    </row>
     <row r="149" spans="1:4" ht="15">
-      <c r="A149" s="86" t="s">
-        <v>229</v>
-      </c>
-      <c r="B149" s="87"/>
-      <c r="C149" s="87"/>
-      <c r="D149" s="88"/>
+      <c r="A149" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D149" s="6" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="150" spans="1:4" ht="15">
-      <c r="A150" s="3" t="s">
+      <c r="A150" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="B150" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="C150" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D150" s="10"/>
+    </row>
+    <row r="151" spans="1:4" ht="30">
+      <c r="A151" s="29" t="s">
+        <v>235</v>
+      </c>
+      <c r="B151" s="34" t="s">
+        <v>237</v>
+      </c>
+      <c r="C151" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D151" s="27"/>
+    </row>
+    <row r="152" spans="1:4" ht="30.75" thickBot="1">
+      <c r="A152" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="B152" s="35" t="s">
+        <v>242</v>
+      </c>
+      <c r="C152" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D152" s="14"/>
+    </row>
+    <row r="153" spans="1:4" ht="13.5" thickBot="1"/>
+    <row r="154" spans="1:4" ht="15">
+      <c r="A154" s="83" t="s">
+        <v>243</v>
+      </c>
+      <c r="B154" s="81"/>
+      <c r="C154" s="81"/>
+      <c r="D154" s="82"/>
+    </row>
+    <row r="155" spans="1:4" ht="15">
+      <c r="A155" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B155" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B150" s="4" t="s">
+      <c r="C155" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C150" s="5" t="s">
+      <c r="D155" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D150" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" ht="15">
-      <c r="A151" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="B151" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="C151" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D151" s="10"/>
-    </row>
-    <row r="152" spans="1:4" ht="30">
-      <c r="A152" s="29" t="s">
-        <v>231</v>
-      </c>
-      <c r="B152" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="C152" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D152" s="27"/>
-    </row>
-    <row r="153" spans="1:4" ht="30">
-      <c r="A153" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="B153" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="C153" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D153" s="10"/>
-    </row>
-    <row r="154" spans="1:4" ht="15">
-      <c r="A154" s="19" t="s">
-        <v>225</v>
-      </c>
-      <c r="B154" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="C154" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="D154" s="10"/>
-    </row>
-    <row r="155" spans="1:4" ht="30.75" thickBot="1">
-      <c r="A155" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="B155" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="C155" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="D155" s="14">
-        <v>6</v>
-      </c>
+    </row>
+    <row r="156" spans="1:4" ht="15">
+      <c r="A156" s="32" t="s">
+        <v>244</v>
+      </c>
+      <c r="B156" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="C156" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D156" s="10"/>
+    </row>
+    <row r="157" spans="1:4" ht="30">
+      <c r="A157" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="B157" s="34" t="s">
+        <v>245</v>
+      </c>
+      <c r="C157" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D157" s="27"/>
+    </row>
+    <row r="158" spans="1:4" ht="30.75" thickBot="1">
+      <c r="A158" s="37" t="s">
+        <v>240</v>
+      </c>
+      <c r="B158" s="35" t="s">
+        <v>241</v>
+      </c>
+      <c r="C158" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D158" s="14"/>
+    </row>
+    <row r="159" spans="1:4" ht="13.5" thickBot="1"/>
+    <row r="160" spans="1:4" ht="15">
+      <c r="A160" s="83" t="s">
+        <v>246</v>
+      </c>
+      <c r="B160" s="81"/>
+      <c r="C160" s="81"/>
+      <c r="D160" s="82"/>
+    </row>
+    <row r="161" spans="1:4" ht="15">
+      <c r="A161" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D161" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="15">
+      <c r="A162" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="B162" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="C162" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D162" s="10"/>
+    </row>
+    <row r="163" spans="1:4" ht="30">
+      <c r="A163" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="B163" s="34" t="s">
+        <v>247</v>
+      </c>
+      <c r="C163" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D163" s="27"/>
+    </row>
+    <row r="164" spans="1:4" ht="30.75" thickBot="1">
+      <c r="A164" s="37" t="s">
+        <v>240</v>
+      </c>
+      <c r="B164" s="35" t="s">
+        <v>241</v>
+      </c>
+      <c r="C164" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D164" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="17">
+    <mergeCell ref="A148:D148"/>
+    <mergeCell ref="A154:D154"/>
+    <mergeCell ref="A160:D160"/>
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A141:D141"/>
+    <mergeCell ref="A133:D133"/>
+    <mergeCell ref="A112:D112"/>
+    <mergeCell ref="A93:D93"/>
+    <mergeCell ref="A105:D105"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A76:D76"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="E126:E128"/>
-    <mergeCell ref="A67:D67"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A149:D149"/>
-    <mergeCell ref="A141:D141"/>
-    <mergeCell ref="A120:D120"/>
-    <mergeCell ref="A95:D95"/>
-    <mergeCell ref="A101:D101"/>
-    <mergeCell ref="A113:D113"/>
+    <mergeCell ref="A82:D82"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A75:D75"/>
+    <mergeCell ref="A43:D43"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
